--- a/documents/Online Dictionary Project Plan.xlsx
+++ b/documents/Online Dictionary Project Plan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
   <si>
     <t>Notes : You need to update the timeline on the right to reflect the current dates.  Tasks must be assigned to one (and only one) owner, and each owner must have a different color associated with them (it cannot be red or green).  Each requirement from the requirements document should be included, and referenced by number.  You should also include any other tasks that will take time (setup, testing, documentation, etc).  Each "day" on the calendar represents 2 hours of work.  You should break down your tasks into chunks of 1-4 "days".   The tasks below are for demonstration purposes only - replace them with your requirements and tasks.  The yellow bars on the calendar represent weekends - you probably want to take those (and any breaks) into account while planning!</t>
   </si>
@@ -122,16 +122,28 @@
     <t>2.0.2</t>
   </si>
   <si>
-    <t>Home page backend logic</t>
+    <t>Home page basic UI</t>
   </si>
   <si>
     <t>2.0.3</t>
   </si>
   <si>
+    <t>Searching logic for demo UI</t>
+  </si>
+  <si>
+    <t>2.0.4</t>
+  </si>
+  <si>
+    <t>Home page backend logic</t>
+  </si>
+  <si>
+    <t>2.0.5</t>
+  </si>
+  <si>
     <t>Integrating Front End &amp; Backend</t>
   </si>
   <si>
-    <t>2.0.4</t>
+    <t>2.0.6</t>
   </si>
   <si>
     <t>Unit Testing</t>
@@ -143,7 +155,7 @@
     <t>2.1.1</t>
   </si>
   <si>
-    <t>Processing Wordnet data and Webster Data</t>
+    <t>Processing Wordnet data,Webster Data,Wiktionary Data</t>
   </si>
   <si>
     <t>2.1.2</t>
@@ -158,10 +170,7 @@
     <t>2.1.3</t>
   </si>
   <si>
-    <t>Create Front End for searching</t>
-  </si>
-  <si>
-    <t>7 Days</t>
+    <t>API and Endpoint Creation</t>
   </si>
   <si>
     <t>2.1.4</t>
@@ -240,6 +249,9 @@
   </si>
   <si>
     <t>UI Enhancements</t>
+  </si>
+  <si>
+    <t>7 Days</t>
   </si>
   <si>
     <t>2.3.3</t>
@@ -533,11 +545,11 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1274,7 +1286,6 @@
       <c r="AL6" s="16"/>
       <c r="AM6" s="12"/>
       <c r="AN6" s="12"/>
-      <c r="AO6" s="2"/>
       <c r="AS6" s="2"/>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
@@ -1465,7 +1476,7 @@
       <c r="AI8" s="20"/>
       <c r="AJ8" s="20"/>
       <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
+      <c r="AL8" s="11"/>
       <c r="AM8" s="12"/>
       <c r="AN8" s="12"/>
       <c r="AO8" s="11"/>
@@ -1661,7 +1672,7 @@
       <c r="AI10" s="22"/>
       <c r="AJ10" s="22"/>
       <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
+      <c r="AL10" s="11"/>
       <c r="AM10" s="12"/>
       <c r="AN10" s="12"/>
       <c r="AO10" s="11"/>
@@ -1763,14 +1774,12 @@
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
       <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
+      <c r="AL11" s="20"/>
       <c r="AM11" s="12"/>
       <c r="AN11" s="12"/>
       <c r="AO11" s="20"/>
       <c r="AP11" s="20"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="11"/>
+      <c r="AQ11" s="20"/>
       <c r="AT11" s="12"/>
       <c r="AU11" s="12"/>
       <c r="AW11" s="2"/>
@@ -1825,10 +1834,10 @@
         <v>36</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="11"/>
@@ -1860,15 +1869,11 @@
       <c r="AH12" s="11"/>
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
       <c r="AM12" s="12"/>
       <c r="AN12" s="12"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
+      <c r="AO12" s="21"/>
       <c r="AT12" s="12"/>
       <c r="AU12" s="12"/>
       <c r="AW12" s="2"/>
@@ -1923,10 +1928,10 @@
         <v>38</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="11"/>
@@ -1958,15 +1963,10 @@
       <c r="AH13" s="11"/>
       <c r="AI13" s="11"/>
       <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
       <c r="AM13" s="12"/>
       <c r="AN13" s="12"/>
-      <c r="AO13" s="22"/>
-      <c r="AP13" s="22"/>
-      <c r="AQ13" s="22"/>
-      <c r="AR13" s="22"/>
-      <c r="AS13" s="11"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
       <c r="AT13" s="12"/>
       <c r="AU13" s="12"/>
       <c r="AW13" s="2"/>
@@ -2024,7 +2024,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="11"/>
@@ -2060,11 +2060,6 @@
       <c r="AL14" s="11"/>
       <c r="AM14" s="12"/>
       <c r="AN14" s="12"/>
-      <c r="AO14" s="11"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="11"/>
-      <c r="AS14" s="11"/>
       <c r="AT14" s="12"/>
       <c r="AU14" s="12"/>
       <c r="AW14" s="2"/>
@@ -2110,23 +2105,19 @@
       <c r="DD14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="18">
-        <v>2.1</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>43</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="11"/>
@@ -2158,13 +2149,10 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
       <c r="AM15" s="12"/>
       <c r="AN15" s="12"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="19"/>
       <c r="AT15" s="12"/>
       <c r="AU15" s="12"/>
       <c r="AW15" s="2"/>
@@ -2210,19 +2198,19 @@
       <c r="DD15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>45</v>
-      </c>
       <c r="E16" s="14" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="11"/>
@@ -2258,12 +2246,8 @@
       <c r="AL16" s="11"/>
       <c r="AM16" s="12"/>
       <c r="AN16" s="12"/>
-      <c r="AO16" s="2"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="19"/>
       <c r="AT16" s="12"/>
       <c r="AU16" s="12"/>
-      <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
       <c r="AZ16" s="2"/>
@@ -2307,19 +2291,23 @@
       <c r="DD16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="C17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="E17" s="14" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="11"/>
@@ -2349,18 +2337,16 @@
       <c r="AF17" s="12"/>
       <c r="AG17" s="12"/>
       <c r="AH17" s="11"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="19"/>
       <c r="AM17" s="12"/>
       <c r="AN17" s="12"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
       <c r="AT17" s="12"/>
       <c r="AU17" s="12"/>
-      <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
       <c r="AZ17" s="2"/>
@@ -2407,16 +2393,16 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="F18" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="11"/>
@@ -2452,10 +2438,8 @@
       <c r="AL18" s="11"/>
       <c r="AM18" s="12"/>
       <c r="AN18" s="12"/>
-      <c r="AO18" s="2"/>
-      <c r="AQ18" s="20"/>
-      <c r="AR18" s="20"/>
-      <c r="AS18" s="20"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
       <c r="AT18" s="12"/>
       <c r="AU18" s="12"/>
       <c r="AV18" s="2"/>
@@ -2505,17 +2489,13 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>15</v>
-      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="2"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -2546,9 +2526,6 @@
       <c r="AH19" s="11"/>
       <c r="AM19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="16"/>
-      <c r="AR19" s="16"/>
-      <c r="AS19" s="24"/>
       <c r="AT19" s="12"/>
       <c r="AU19" s="12"/>
       <c r="AV19" s="2"/>
@@ -2598,16 +2575,16 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="E20" s="14" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="11"/>
@@ -2643,8 +2620,6 @@
       <c r="AL20" s="11"/>
       <c r="AM20" s="12"/>
       <c r="AN20" s="12"/>
-      <c r="AO20" s="2"/>
-      <c r="AS20" s="16"/>
       <c r="AT20" s="12"/>
       <c r="AU20" s="12"/>
       <c r="AV20" s="2"/>
@@ -2694,16 +2669,16 @@
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="11"/>
@@ -2733,16 +2708,14 @@
       <c r="AF21" s="12"/>
       <c r="AG21" s="12"/>
       <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
       <c r="AM21" s="12"/>
       <c r="AN21" s="12"/>
-      <c r="AO21" s="2"/>
-      <c r="AS21" s="22"/>
+      <c r="AP21" s="16"/>
+      <c r="AQ21" s="16"/>
       <c r="AT21" s="12"/>
       <c r="AU21" s="12"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
       <c r="AZ21" s="2"/>
       <c r="BA21" s="12"/>
@@ -2788,16 +2761,16 @@
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="E22" s="14" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="11"/>
@@ -2833,10 +2806,11 @@
       <c r="AL22" s="11"/>
       <c r="AM22" s="12"/>
       <c r="AN22" s="12"/>
-      <c r="AO22" s="2"/>
-      <c r="AS22" s="22"/>
+      <c r="AO22" s="16"/>
       <c r="AT22" s="12"/>
       <c r="AU22" s="12"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
       <c r="AZ22" s="2"/>
       <c r="BA22" s="12"/>
@@ -2879,17 +2853,13 @@
       <c r="DD22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="25">
-        <v>2.2</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="25" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>61</v>
+      <c r="D23" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>18</v>
@@ -2931,13 +2901,10 @@
       <c r="AL23" s="11"/>
       <c r="AM23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AO23" s="2"/>
-      <c r="AS23" s="2"/>
       <c r="AT23" s="12"/>
       <c r="AU23" s="12"/>
-      <c r="AV23" s="22"/>
-      <c r="AW23" s="22"/>
-      <c r="AX23" s="22"/>
+      <c r="AX23" s="2"/>
+      <c r="AZ23" s="2"/>
       <c r="BA23" s="12"/>
       <c r="BB23" s="12"/>
       <c r="BC23" s="2"/>
@@ -2978,19 +2945,19 @@
       <c r="DD23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="25" t="s">
-        <v>62</v>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="18" t="s">
+        <v>61</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>63</v>
+      <c r="D24" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="11"/>
@@ -3026,18 +2993,10 @@
       <c r="AL24" s="11"/>
       <c r="AM24" s="12"/>
       <c r="AN24" s="12"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="11"/>
-      <c r="AR24" s="11"/>
-      <c r="AS24" s="11"/>
       <c r="AT24" s="12"/>
       <c r="AU24" s="12"/>
-      <c r="AV24" s="16"/>
-      <c r="AW24" s="16"/>
-      <c r="AX24" s="16"/>
-      <c r="AY24" s="16"/>
-      <c r="AZ24" s="16"/>
+      <c r="AX24" s="2"/>
+      <c r="AZ24" s="2"/>
       <c r="BA24" s="12"/>
       <c r="BB24" s="12"/>
       <c r="BC24" s="2"/>
@@ -3078,19 +3037,23 @@
       <c r="DD24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="25" t="s">
+      <c r="A25" s="24">
+        <v>2.2</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>65</v>
-      </c>
       <c r="E25" s="14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="11"/>
@@ -3126,18 +3089,12 @@
       <c r="AL25" s="11"/>
       <c r="AM25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="11"/>
-      <c r="AS25" s="11"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="25"/>
+      <c r="AS25" s="2"/>
       <c r="AT25" s="12"/>
       <c r="AU25" s="12"/>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="19"/>
       <c r="BA25" s="12"/>
       <c r="BB25" s="12"/>
       <c r="BC25" s="2"/>
@@ -3180,17 +3137,17 @@
     <row r="26">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="11"/>
@@ -3233,11 +3190,6 @@
       <c r="AS26" s="11"/>
       <c r="AT26" s="12"/>
       <c r="AU26" s="12"/>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="21"/>
-      <c r="AX26" s="21"/>
-      <c r="AY26" s="21"/>
-      <c r="AZ26" s="21"/>
       <c r="BA26" s="12"/>
       <c r="BB26" s="12"/>
       <c r="BC26" s="2"/>
@@ -3280,17 +3232,17 @@
     <row r="27">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>69</v>
-      </c>
       <c r="E27" s="14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="11"/>
@@ -3333,11 +3285,6 @@
       <c r="AS27" s="11"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
-      <c r="AV27" s="20"/>
-      <c r="AW27" s="20"/>
-      <c r="AX27" s="20"/>
-      <c r="AY27" s="2"/>
-      <c r="AZ27" s="2"/>
       <c r="BA27" s="12"/>
       <c r="BB27" s="12"/>
       <c r="BC27" s="2"/>
@@ -3380,17 +3327,17 @@
     <row r="28">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>71</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="11"/>
@@ -3433,10 +3380,6 @@
       <c r="AS28" s="11"/>
       <c r="AT28" s="12"/>
       <c r="AU28" s="12"/>
-      <c r="AV28" s="2"/>
-      <c r="AW28" s="2"/>
-      <c r="AY28" s="20"/>
-      <c r="AZ28" s="20"/>
       <c r="BA28" s="12"/>
       <c r="BB28" s="12"/>
       <c r="BC28" s="2"/>
@@ -3479,17 +3422,17 @@
     <row r="29">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>38</v>
-      </c>
       <c r="E29" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="11"/>
@@ -3532,10 +3475,6 @@
       <c r="AS29" s="11"/>
       <c r="AT29" s="12"/>
       <c r="AU29" s="12"/>
-      <c r="AV29" s="2"/>
-      <c r="AW29" s="2"/>
-      <c r="AY29" s="22"/>
-      <c r="AZ29" s="22"/>
       <c r="BA29" s="12"/>
       <c r="BB29" s="12"/>
       <c r="BC29" s="2"/>
@@ -3576,22 +3515,20 @@
       <c r="DD29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="18">
-        <v>2.3</v>
-      </c>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="D30" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>75</v>
+      <c r="E30" s="14" t="s">
+        <v>14</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>49</v>
+      <c r="F30" s="14" t="s">
+        <v>25</v>
       </c>
-      <c r="F30" s="14"/>
       <c r="G30" s="2"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -3633,10 +3570,6 @@
       <c r="AS30" s="11"/>
       <c r="AT30" s="12"/>
       <c r="AU30" s="12"/>
-      <c r="AV30" s="2"/>
-      <c r="AW30" s="2"/>
-      <c r="AX30" s="2"/>
-      <c r="AZ30" s="2"/>
       <c r="BA30" s="12"/>
       <c r="BB30" s="12"/>
       <c r="BC30" s="2"/>
@@ -3677,18 +3610,20 @@
       <c r="DD30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="18" t="s">
-        <v>76</v>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="24" t="s">
+        <v>75</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>77</v>
+      <c r="D31" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -3730,10 +3665,6 @@
       <c r="AS31" s="11"/>
       <c r="AT31" s="12"/>
       <c r="AU31" s="12"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2"/>
-      <c r="AZ31" s="2"/>
       <c r="BA31" s="12"/>
       <c r="BB31" s="12"/>
       <c r="BC31" s="2"/>
@@ -3774,16 +3705,20 @@
       <c r="DD31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="18">
+        <v>2.3</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="C32" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="2"/>
@@ -3839,15 +3774,13 @@
       <c r="BG32" s="2"/>
       <c r="BH32" s="12"/>
       <c r="BI32" s="12"/>
-      <c r="BJ32" s="16"/>
-      <c r="BK32" s="16"/>
-      <c r="BL32" s="16"/>
-      <c r="BM32" s="16"/>
-      <c r="BN32" s="16"/>
+      <c r="BJ32" s="2"/>
+      <c r="BK32" s="2"/>
+      <c r="BL32" s="2"/>
       <c r="BO32" s="12"/>
       <c r="BP32" s="12"/>
-      <c r="BQ32" s="16"/>
-      <c r="BR32" s="16"/>
+      <c r="BQ32" s="2"/>
+      <c r="BR32" s="2"/>
       <c r="BV32" s="12"/>
       <c r="BW32" s="12"/>
       <c r="BX32" s="2"/>
@@ -3873,20 +3806,16 @@
       <c r="DD32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="25">
-        <v>2.4</v>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="18" t="s">
+        <v>80</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>84</v>
+      <c r="D33" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="2"/>
@@ -3974,20 +3903,18 @@
       <c r="DD33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="25" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="F34" s="14"/>
       <c r="G34" s="2"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -4041,13 +3968,15 @@
       <c r="BG34" s="2"/>
       <c r="BH34" s="12"/>
       <c r="BI34" s="12"/>
-      <c r="BJ34" s="19"/>
-      <c r="BK34" s="19"/>
-      <c r="BL34" s="19"/>
+      <c r="BJ34" s="16"/>
+      <c r="BK34" s="16"/>
+      <c r="BL34" s="16"/>
+      <c r="BM34" s="16"/>
+      <c r="BN34" s="16"/>
       <c r="BO34" s="12"/>
       <c r="BP34" s="12"/>
-      <c r="BQ34" s="2"/>
-      <c r="BR34" s="2"/>
+      <c r="BQ34" s="16"/>
+      <c r="BR34" s="16"/>
       <c r="BV34" s="12"/>
       <c r="BW34" s="12"/>
       <c r="BX34" s="2"/>
@@ -4073,16 +4002,20 @@
       <c r="DD34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="25" t="s">
+      <c r="A35" s="24">
+        <v>2.4</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="24" t="s">
         <v>88</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="2"/>
@@ -4172,17 +4105,17 @@
     <row r="36">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="24" t="s">
         <v>90</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="11"/>
@@ -4225,6 +4158,10 @@
       <c r="AS36" s="11"/>
       <c r="AT36" s="12"/>
       <c r="AU36" s="12"/>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AZ36" s="2"/>
       <c r="BA36" s="12"/>
       <c r="BB36" s="12"/>
       <c r="BC36" s="2"/>
@@ -4233,13 +4170,13 @@
       <c r="BG36" s="2"/>
       <c r="BH36" s="12"/>
       <c r="BI36" s="12"/>
-      <c r="BL36" s="21"/>
-      <c r="BM36" s="21"/>
-      <c r="BN36" s="21"/>
+      <c r="BJ36" s="19"/>
+      <c r="BK36" s="19"/>
+      <c r="BL36" s="19"/>
       <c r="BO36" s="12"/>
       <c r="BP36" s="12"/>
-      <c r="BQ36" s="21"/>
-      <c r="BR36" s="21"/>
+      <c r="BQ36" s="2"/>
+      <c r="BR36" s="2"/>
       <c r="BV36" s="12"/>
       <c r="BW36" s="12"/>
       <c r="BX36" s="2"/>
@@ -4265,12 +4202,16 @@
       <c r="DD36" s="2"/>
     </row>
     <row r="37">
-      <c r="C37" s="14"/>
-      <c r="D37" s="14" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="24" t="s">
         <v>91</v>
       </c>
+      <c r="D37" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="E37" s="14" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="2"/>
@@ -4307,8 +4248,11 @@
       <c r="AL37" s="11"/>
       <c r="AM37" s="12"/>
       <c r="AN37" s="12"/>
-      <c r="AO37" s="2"/>
-      <c r="AS37" s="2"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
+      <c r="AS37" s="11"/>
       <c r="AT37" s="12"/>
       <c r="AU37" s="12"/>
       <c r="AV37" s="2"/>
@@ -4355,14 +4299,20 @@
       <c r="DD37" s="2"/>
     </row>
     <row r="38">
-      <c r="C38" s="18"/>
-      <c r="D38" s="18" t="s">
-        <v>92</v>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
-      <c r="F38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -4390,21 +4340,20 @@
       <c r="AE38" s="11"/>
       <c r="AF38" s="12"/>
       <c r="AG38" s="12"/>
-      <c r="AH38" s="2"/>
-      <c r="AI38" s="2"/>
-      <c r="AJ38" s="27"/>
-      <c r="AK38" s="27"/>
-      <c r="AL38" s="2"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
       <c r="AM38" s="12"/>
       <c r="AN38" s="12"/>
-      <c r="AO38" s="2"/>
-      <c r="AS38" s="2"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="11"/>
       <c r="AT38" s="12"/>
       <c r="AU38" s="12"/>
-      <c r="AV38" s="2"/>
-      <c r="AW38" s="2"/>
-      <c r="AX38" s="2"/>
-      <c r="AZ38" s="2"/>
       <c r="BA38" s="12"/>
       <c r="BB38" s="12"/>
       <c r="BC38" s="2"/>
@@ -4413,11 +4362,13 @@
       <c r="BG38" s="2"/>
       <c r="BH38" s="12"/>
       <c r="BI38" s="12"/>
-      <c r="BJ38" s="2"/>
-      <c r="BK38" s="2"/>
-      <c r="BL38" s="2"/>
+      <c r="BL38" s="21"/>
+      <c r="BM38" s="21"/>
+      <c r="BN38" s="21"/>
       <c r="BO38" s="12"/>
       <c r="BP38" s="12"/>
+      <c r="BQ38" s="21"/>
+      <c r="BR38" s="21"/>
       <c r="BV38" s="12"/>
       <c r="BW38" s="12"/>
       <c r="BX38" s="2"/>
@@ -4443,16 +4394,14 @@
       <c r="DD38" s="2"/>
     </row>
     <row r="39">
-      <c r="C39" s="18"/>
-      <c r="D39" s="18" t="s">
-        <v>93</v>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="F39" s="14"/>
       <c r="G39" s="2"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -4480,11 +4429,11 @@
       <c r="AE39" s="11"/>
       <c r="AF39" s="12"/>
       <c r="AG39" s="12"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="27"/>
-      <c r="AK39" s="27"/>
-      <c r="AL39" s="2"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
       <c r="AM39" s="12"/>
       <c r="AN39" s="12"/>
       <c r="AO39" s="2"/>
@@ -4508,15 +4457,16 @@
       <c r="BL39" s="2"/>
       <c r="BO39" s="12"/>
       <c r="BP39" s="12"/>
+      <c r="BQ39" s="2"/>
+      <c r="BR39" s="2"/>
       <c r="BV39" s="12"/>
       <c r="BW39" s="12"/>
       <c r="BX39" s="2"/>
       <c r="BY39" s="2"/>
       <c r="CC39" s="12"/>
       <c r="CD39" s="12"/>
-      <c r="CE39" s="19"/>
-      <c r="CF39" s="19"/>
-      <c r="CG39" s="19"/>
+      <c r="CE39" s="2"/>
+      <c r="CF39" s="2"/>
       <c r="CJ39" s="12"/>
       <c r="CK39" s="12"/>
       <c r="CL39" s="2"/>
@@ -4536,14 +4486,12 @@
     <row r="40">
       <c r="C40" s="18"/>
       <c r="D40" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="F40" s="14"/>
       <c r="G40" s="2"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -4599,8 +4547,6 @@
       <c r="BL40" s="2"/>
       <c r="BO40" s="12"/>
       <c r="BP40" s="12"/>
-      <c r="BQ40" s="2"/>
-      <c r="BR40" s="2"/>
       <c r="BV40" s="12"/>
       <c r="BW40" s="12"/>
       <c r="BX40" s="2"/>
@@ -4615,9 +4561,7 @@
       <c r="CM40" s="2"/>
       <c r="CQ40" s="12"/>
       <c r="CR40" s="12"/>
-      <c r="CS40" s="19"/>
-      <c r="CT40" s="19"/>
-      <c r="CU40" s="19"/>
+      <c r="CS40" s="2"/>
       <c r="CW40" s="2"/>
       <c r="CX40" s="12"/>
       <c r="CY40" s="12"/>
@@ -4630,12 +4574,14 @@
     <row r="41">
       <c r="C41" s="18"/>
       <c r="D41" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
-      <c r="F41" s="14"/>
+      <c r="F41" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -4691,16 +4637,15 @@
       <c r="BL41" s="2"/>
       <c r="BO41" s="12"/>
       <c r="BP41" s="12"/>
-      <c r="BQ41" s="2"/>
-      <c r="BR41" s="2"/>
       <c r="BV41" s="12"/>
       <c r="BW41" s="12"/>
       <c r="BX41" s="2"/>
       <c r="BY41" s="2"/>
       <c r="CC41" s="12"/>
       <c r="CD41" s="12"/>
-      <c r="CE41" s="2"/>
-      <c r="CF41" s="2"/>
+      <c r="CE41" s="19"/>
+      <c r="CF41" s="19"/>
+      <c r="CG41" s="19"/>
       <c r="CJ41" s="12"/>
       <c r="CK41" s="12"/>
       <c r="CL41" s="2"/>
@@ -4718,15 +4663,15 @@
       <c r="DD41" s="2"/>
     </row>
     <row r="42">
-      <c r="C42" s="14"/>
-      <c r="D42" s="14" t="s">
-        <v>97</v>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="11"/>
@@ -4799,7 +4744,9 @@
       <c r="CM42" s="2"/>
       <c r="CQ42" s="12"/>
       <c r="CR42" s="12"/>
-      <c r="CS42" s="2"/>
+      <c r="CS42" s="19"/>
+      <c r="CT42" s="19"/>
+      <c r="CU42" s="19"/>
       <c r="CW42" s="2"/>
       <c r="CX42" s="12"/>
       <c r="CY42" s="12"/>
@@ -4810,16 +4757,14 @@
       <c r="DD42" s="2"/>
     </row>
     <row r="43">
-      <c r="C43" s="14"/>
-      <c r="D43" s="14" t="s">
-        <v>98</v>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="F43" s="14"/>
       <c r="G43" s="2"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -4904,12 +4849,14 @@
     <row r="44">
       <c r="C44" s="14"/>
       <c r="D44" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="14"/>
+      <c r="F44" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -4991,10 +4938,106 @@
       <c r="DC44" s="2"/>
       <c r="DD44" s="2"/>
     </row>
+    <row r="45">
+      <c r="C45" s="14"/>
+      <c r="D45" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="27"/>
+      <c r="AK45" s="27"/>
+      <c r="AL45" s="2"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="2"/>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="12"/>
+      <c r="AU45" s="12"/>
+      <c r="AV45" s="2"/>
+      <c r="AW45" s="2"/>
+      <c r="AX45" s="2"/>
+      <c r="AZ45" s="2"/>
+      <c r="BA45" s="12"/>
+      <c r="BB45" s="12"/>
+      <c r="BC45" s="2"/>
+      <c r="BD45" s="2"/>
+      <c r="BE45" s="2"/>
+      <c r="BG45" s="2"/>
+      <c r="BH45" s="12"/>
+      <c r="BI45" s="12"/>
+      <c r="BJ45" s="2"/>
+      <c r="BK45" s="2"/>
+      <c r="BL45" s="2"/>
+      <c r="BO45" s="12"/>
+      <c r="BP45" s="12"/>
+      <c r="BQ45" s="2"/>
+      <c r="BR45" s="2"/>
+      <c r="BV45" s="12"/>
+      <c r="BW45" s="12"/>
+      <c r="BX45" s="2"/>
+      <c r="BY45" s="2"/>
+      <c r="CC45" s="12"/>
+      <c r="CD45" s="12"/>
+      <c r="CE45" s="2"/>
+      <c r="CF45" s="2"/>
+      <c r="CJ45" s="12"/>
+      <c r="CK45" s="12"/>
+      <c r="CL45" s="2"/>
+      <c r="CM45" s="2"/>
+      <c r="CQ45" s="12"/>
+      <c r="CR45" s="12"/>
+      <c r="CS45" s="2"/>
+      <c r="CW45" s="2"/>
+      <c r="CX45" s="12"/>
+      <c r="CY45" s="12"/>
+      <c r="CZ45" s="2"/>
+      <c r="DA45" s="2"/>
+      <c r="DB45" s="2"/>
+      <c r="DC45" s="2"/>
+      <c r="DD45" s="2"/>
+    </row>
     <row r="46">
       <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+      <c r="D46" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F46" s="14"/>
       <c r="G46" s="2"/>
       <c r="H46" s="11"/>
@@ -5077,71 +5120,93 @@
       <c r="DC46" s="2"/>
       <c r="DD46" s="2"/>
     </row>
-    <row r="47">
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11"/>
-      <c r="AD47" s="11"/>
-      <c r="AE47" s="11"/>
-      <c r="AJ47" s="27"/>
-    </row>
     <row r="48">
-      <c r="C48" s="13"/>
-      <c r="D48" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="22"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
       <c r="AA48" s="11"/>
       <c r="AB48" s="11"/>
       <c r="AC48" s="11"/>
       <c r="AD48" s="11"/>
       <c r="AE48" s="11"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
       <c r="AJ48" s="27"/>
+      <c r="AK48" s="27"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="12"/>
+      <c r="AN48" s="12"/>
+      <c r="AO48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="12"/>
+      <c r="AU48" s="12"/>
+      <c r="AV48" s="2"/>
+      <c r="AW48" s="2"/>
+      <c r="AX48" s="2"/>
+      <c r="AZ48" s="2"/>
+      <c r="BA48" s="12"/>
+      <c r="BB48" s="12"/>
+      <c r="BC48" s="2"/>
+      <c r="BD48" s="2"/>
+      <c r="BE48" s="2"/>
+      <c r="BG48" s="2"/>
+      <c r="BH48" s="12"/>
+      <c r="BI48" s="12"/>
+      <c r="BJ48" s="2"/>
+      <c r="BK48" s="2"/>
+      <c r="BL48" s="2"/>
+      <c r="BO48" s="12"/>
+      <c r="BP48" s="12"/>
+      <c r="BQ48" s="2"/>
+      <c r="BR48" s="2"/>
+      <c r="BV48" s="12"/>
+      <c r="BW48" s="12"/>
+      <c r="BX48" s="2"/>
+      <c r="BY48" s="2"/>
+      <c r="CC48" s="12"/>
+      <c r="CD48" s="12"/>
+      <c r="CE48" s="2"/>
+      <c r="CF48" s="2"/>
+      <c r="CJ48" s="12"/>
+      <c r="CK48" s="12"/>
+      <c r="CL48" s="2"/>
+      <c r="CM48" s="2"/>
+      <c r="CQ48" s="12"/>
+      <c r="CR48" s="12"/>
+      <c r="CS48" s="2"/>
+      <c r="CW48" s="2"/>
+      <c r="CX48" s="12"/>
+      <c r="CY48" s="12"/>
+      <c r="CZ48" s="2"/>
+      <c r="DA48" s="2"/>
+      <c r="DB48" s="2"/>
+      <c r="DC48" s="2"/>
+      <c r="DD48" s="2"/>
     </row>
     <row r="49">
-      <c r="C49" s="13"/>
-      <c r="D49" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="16"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
@@ -5166,13 +5231,14 @@
       <c r="AC49" s="11"/>
       <c r="AD49" s="11"/>
       <c r="AE49" s="11"/>
+      <c r="AJ49" s="27"/>
     </row>
     <row r="50">
       <c r="C50" s="13"/>
       <c r="D50" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
-      <c r="E50" s="19"/>
+      <c r="E50" s="22"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
@@ -5197,13 +5263,14 @@
       <c r="AC50" s="11"/>
       <c r="AD50" s="11"/>
       <c r="AE50" s="11"/>
+      <c r="AJ50" s="27"/>
     </row>
     <row r="51">
       <c r="C51" s="13"/>
       <c r="D51" s="13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
-      <c r="E51" s="20"/>
+      <c r="E51" s="16"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -5230,10 +5297,11 @@
       <c r="AE51" s="11"/>
     </row>
     <row r="52">
+      <c r="C52" s="13"/>
       <c r="D52" s="13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
-      <c r="E52" s="21"/>
+      <c r="E52" s="19"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
@@ -5260,6 +5328,11 @@
       <c r="AE52" s="11"/>
     </row>
     <row r="53">
+      <c r="C53" s="13"/>
+      <c r="D53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="20"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
@@ -5286,6 +5359,10 @@
       <c r="AE53" s="11"/>
     </row>
     <row r="54">
+      <c r="D54" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="21"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
@@ -30478,6 +30555,58 @@
       <c r="AC1022" s="11"/>
       <c r="AD1022" s="11"/>
       <c r="AE1022" s="11"/>
+    </row>
+    <row r="1023">
+      <c r="H1023" s="11"/>
+      <c r="I1023" s="11"/>
+      <c r="J1023" s="11"/>
+      <c r="K1023" s="11"/>
+      <c r="L1023" s="11"/>
+      <c r="M1023" s="11"/>
+      <c r="N1023" s="11"/>
+      <c r="O1023" s="11"/>
+      <c r="P1023" s="11"/>
+      <c r="Q1023" s="11"/>
+      <c r="R1023" s="11"/>
+      <c r="S1023" s="11"/>
+      <c r="T1023" s="11"/>
+      <c r="U1023" s="11"/>
+      <c r="V1023" s="11"/>
+      <c r="W1023" s="11"/>
+      <c r="X1023" s="11"/>
+      <c r="Y1023" s="11"/>
+      <c r="Z1023" s="11"/>
+      <c r="AA1023" s="11"/>
+      <c r="AB1023" s="11"/>
+      <c r="AC1023" s="11"/>
+      <c r="AD1023" s="11"/>
+      <c r="AE1023" s="11"/>
+    </row>
+    <row r="1024">
+      <c r="H1024" s="11"/>
+      <c r="I1024" s="11"/>
+      <c r="J1024" s="11"/>
+      <c r="K1024" s="11"/>
+      <c r="L1024" s="11"/>
+      <c r="M1024" s="11"/>
+      <c r="N1024" s="11"/>
+      <c r="O1024" s="11"/>
+      <c r="P1024" s="11"/>
+      <c r="Q1024" s="11"/>
+      <c r="R1024" s="11"/>
+      <c r="S1024" s="11"/>
+      <c r="T1024" s="11"/>
+      <c r="U1024" s="11"/>
+      <c r="V1024" s="11"/>
+      <c r="W1024" s="11"/>
+      <c r="X1024" s="11"/>
+      <c r="Y1024" s="11"/>
+      <c r="Z1024" s="11"/>
+      <c r="AA1024" s="11"/>
+      <c r="AB1024" s="11"/>
+      <c r="AC1024" s="11"/>
+      <c r="AD1024" s="11"/>
+      <c r="AE1024" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -30509,49 +30638,49 @@
         <v>2.1</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Online Dictionary Project Plan.xlsx
+++ b/documents/Online Dictionary Project Plan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="117">
   <si>
     <t>Notes : You need to update the timeline on the right to reflect the current dates.  Tasks must be assigned to one (and only one) owner, and each owner must have a different color associated with them (it cannot be red or green).  Each requirement from the requirements document should be included, and referenced by number.  You should also include any other tasks that will take time (setup, testing, documentation, etc).  Each "day" on the calendar represents 2 hours of work.  You should break down your tasks into chunks of 1-4 "days".   The tasks below are for demonstration purposes only - replace them with your requirements and tasks.  The yellow bars on the calendar represent weekends - you probably want to take those (and any breaks) into account while planning!</t>
   </si>
@@ -197,7 +197,7 @@
     <t>2.1.7</t>
   </si>
   <si>
-    <t>2.1.8</t>
+    <t>Backend enhancement</t>
   </si>
   <si>
     <t>User can listen to word pronunciations</t>
@@ -209,19 +209,31 @@
     <t>Fetch word pronunciation using Google API</t>
   </si>
   <si>
+    <t>Fetch pronunciation based on phenotics</t>
+  </si>
+  <si>
     <t>2.2.2</t>
   </si>
   <si>
-    <t>Fetch word pronunciation from API and integrate</t>
+    <t>Component Hierarchy Design &amp; Creation</t>
+  </si>
+  <si>
+    <t>1 days</t>
   </si>
   <si>
     <t>2.2.3</t>
   </si>
   <si>
-    <t>Add audio Links to words and cache audio</t>
+    <t>Props &amp; State Management</t>
   </si>
   <si>
     <t>2.2.4</t>
+  </si>
+  <si>
+    <t>API Integration with Client Side Data Processing</t>
+  </si>
+  <si>
+    <t>Add audio Links to words and cache audio</t>
   </si>
   <si>
     <t>UI for audio pronunciation</t>
@@ -254,6 +266,15 @@
     <t>7 Days</t>
   </si>
   <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>Solr for indexing</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
     <t>2.3.3</t>
   </si>
   <si>
@@ -267,9 +288,6 @@
   </si>
   <si>
     <t>Perform semantic analysis to show sentences with context</t>
-  </si>
-  <si>
-    <t>7 days</t>
   </si>
   <si>
     <t>User can find analytics about the words</t>
@@ -402,7 +420,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +489,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA4C2F4"/>
         <bgColor rgb="FFA4C2F4"/>
       </patternFill>
@@ -482,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -551,13 +575,16 @@
     <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -592,7 +619,7 @@
     <col customWidth="1" min="1" max="1" width="13.63"/>
     <col customWidth="1" min="2" max="2" width="30.88"/>
     <col customWidth="1" min="3" max="3" width="8.63"/>
-    <col customWidth="1" min="4" max="4" width="39.5"/>
+    <col customWidth="1" min="4" max="4" width="43.75"/>
     <col customWidth="1" min="5" max="5" width="9.88"/>
     <col customWidth="1" min="6" max="6" width="8.63"/>
     <col customWidth="1" min="7" max="7" width="4.63"/>
@@ -1780,8 +1807,10 @@
       <c r="AO11" s="20"/>
       <c r="AP11" s="20"/>
       <c r="AQ11" s="20"/>
+      <c r="AS11" s="20"/>
       <c r="AT11" s="12"/>
       <c r="AU11" s="12"/>
+      <c r="AV11" s="20"/>
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
       <c r="AZ11" s="2"/>
@@ -2439,7 +2468,6 @@
       <c r="AM18" s="12"/>
       <c r="AN18" s="12"/>
       <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
       <c r="AT18" s="12"/>
       <c r="AU18" s="12"/>
       <c r="AV18" s="2"/>
@@ -2526,6 +2554,7 @@
       <c r="AH19" s="11"/>
       <c r="AM19" s="12"/>
       <c r="AN19" s="12"/>
+      <c r="AR19" s="19"/>
       <c r="AT19" s="12"/>
       <c r="AU19" s="12"/>
       <c r="AV19" s="2"/>
@@ -2620,6 +2649,8 @@
       <c r="AL20" s="11"/>
       <c r="AM20" s="12"/>
       <c r="AN20" s="12"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
       <c r="AT20" s="12"/>
       <c r="AU20" s="12"/>
       <c r="AV20" s="2"/>
@@ -2859,13 +2890,13 @@
         <v>60</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="11"/>
@@ -2901,8 +2932,12 @@
       <c r="AL23" s="11"/>
       <c r="AM23" s="12"/>
       <c r="AN23" s="12"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
       <c r="AT23" s="12"/>
       <c r="AU23" s="12"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
       <c r="AX23" s="2"/>
       <c r="AZ23" s="2"/>
       <c r="BA23" s="12"/>
@@ -2945,16 +2980,20 @@
       <c r="DD23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="18" t="s">
-        <v>61</v>
+      <c r="A24" s="24">
+        <v>2.2</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>44</v>
+      <c r="B24" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>31</v>
@@ -2993,10 +3032,12 @@
       <c r="AL24" s="11"/>
       <c r="AM24" s="12"/>
       <c r="AN24" s="12"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AS24" s="2"/>
       <c r="AT24" s="12"/>
       <c r="AU24" s="12"/>
-      <c r="AX24" s="2"/>
-      <c r="AZ24" s="2"/>
       <c r="BA24" s="12"/>
       <c r="BB24" s="12"/>
       <c r="BC24" s="2"/>
@@ -3037,17 +3078,11 @@
       <c r="DD24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="24">
-        <v>2.2</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>63</v>
-      </c>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>18</v>
@@ -3089,12 +3124,14 @@
       <c r="AL25" s="11"/>
       <c r="AM25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="25"/>
-      <c r="AQ25" s="25"/>
-      <c r="AS25" s="2"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="25"/>
       <c r="AT25" s="12"/>
       <c r="AU25" s="12"/>
+      <c r="AV25" s="22"/>
       <c r="BA25" s="12"/>
       <c r="BB25" s="12"/>
       <c r="BC25" s="2"/>
@@ -3135,19 +3172,19 @@
       <c r="DD25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="11"/>
@@ -3187,7 +3224,7 @@
       <c r="AP26" s="11"/>
       <c r="AQ26" s="11"/>
       <c r="AR26" s="11"/>
-      <c r="AS26" s="11"/>
+      <c r="AS26" s="19"/>
       <c r="AT26" s="12"/>
       <c r="AU26" s="12"/>
       <c r="BA26" s="12"/>
@@ -3230,16 +3267,16 @@
       <c r="DD26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>21</v>
@@ -3285,6 +3322,8 @@
       <c r="AS27" s="11"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
       <c r="BA27" s="12"/>
       <c r="BB27" s="12"/>
       <c r="BC27" s="2"/>
@@ -3325,19 +3364,19 @@
       <c r="DD27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="11"/>
@@ -3380,6 +3419,8 @@
       <c r="AS28" s="11"/>
       <c r="AT28" s="12"/>
       <c r="AU28" s="12"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
       <c r="BA28" s="12"/>
       <c r="BB28" s="12"/>
       <c r="BC28" s="2"/>
@@ -3420,19 +3461,19 @@
       <c r="DD28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="11"/>
@@ -3515,19 +3556,19 @@
       <c r="DD29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>74</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="11"/>
@@ -3610,19 +3651,19 @@
       <c r="DD30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="24" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="11"/>
@@ -3705,22 +3746,20 @@
       <c r="DD31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="18">
-        <v>2.3</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="18" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="24" t="s">
         <v>78</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="F32" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -3762,10 +3801,6 @@
       <c r="AS32" s="11"/>
       <c r="AT32" s="12"/>
       <c r="AU32" s="12"/>
-      <c r="AV32" s="2"/>
-      <c r="AW32" s="2"/>
-      <c r="AX32" s="2"/>
-      <c r="AZ32" s="2"/>
       <c r="BA32" s="12"/>
       <c r="BB32" s="12"/>
       <c r="BC32" s="2"/>
@@ -3806,18 +3841,20 @@
       <c r="DD32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="18" t="s">
-        <v>80</v>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="24" t="s">
+        <v>79</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>81</v>
+      <c r="D33" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
-      <c r="F33" s="14"/>
+      <c r="F33" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -3859,10 +3896,6 @@
       <c r="AS33" s="11"/>
       <c r="AT33" s="12"/>
       <c r="AU33" s="12"/>
-      <c r="AV33" s="2"/>
-      <c r="AW33" s="2"/>
-      <c r="AX33" s="2"/>
-      <c r="AZ33" s="2"/>
       <c r="BA33" s="12"/>
       <c r="BB33" s="12"/>
       <c r="BC33" s="2"/>
@@ -3903,16 +3936,20 @@
       <c r="DD33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="18">
+        <v>2.3</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="C34" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="2"/>
@@ -3968,15 +4005,13 @@
       <c r="BG34" s="2"/>
       <c r="BH34" s="12"/>
       <c r="BI34" s="12"/>
-      <c r="BJ34" s="16"/>
-      <c r="BK34" s="16"/>
-      <c r="BL34" s="16"/>
-      <c r="BM34" s="16"/>
-      <c r="BN34" s="16"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34" s="2"/>
       <c r="BO34" s="12"/>
       <c r="BP34" s="12"/>
-      <c r="BQ34" s="16"/>
-      <c r="BR34" s="16"/>
+      <c r="BQ34" s="2"/>
+      <c r="BR34" s="2"/>
       <c r="BV34" s="12"/>
       <c r="BW34" s="12"/>
       <c r="BX34" s="2"/>
@@ -4002,22 +4037,20 @@
       <c r="DD34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="24">
-        <v>2.4</v>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="18" t="s">
+        <v>84</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="D35" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>87</v>
+      <c r="F35" s="14" t="s">
+        <v>15</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="14"/>
       <c r="G35" s="2"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -4059,9 +4092,9 @@
       <c r="AS35" s="11"/>
       <c r="AT35" s="12"/>
       <c r="AU35" s="12"/>
-      <c r="AV35" s="2"/>
-      <c r="AW35" s="2"/>
-      <c r="AX35" s="2"/>
+      <c r="AV35" s="16"/>
+      <c r="AW35" s="16"/>
+      <c r="AX35" s="16"/>
       <c r="AZ35" s="2"/>
       <c r="BA35" s="12"/>
       <c r="BB35" s="12"/>
@@ -4103,20 +4136,18 @@
       <c r="DD35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="24" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="F36" s="14"/>
       <c r="G36" s="2"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -4170,9 +4201,9 @@
       <c r="BG36" s="2"/>
       <c r="BH36" s="12"/>
       <c r="BI36" s="12"/>
-      <c r="BJ36" s="19"/>
-      <c r="BK36" s="19"/>
-      <c r="BL36" s="19"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="2"/>
       <c r="BO36" s="12"/>
       <c r="BP36" s="12"/>
       <c r="BQ36" s="2"/>
@@ -4202,16 +4233,16 @@
       <c r="DD36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="24" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="24" t="s">
-        <v>92</v>
-      </c>
       <c r="E37" s="14" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="2"/>
@@ -4267,13 +4298,15 @@
       <c r="BG37" s="2"/>
       <c r="BH37" s="12"/>
       <c r="BI37" s="12"/>
-      <c r="BJ37" s="2"/>
-      <c r="BK37" s="2"/>
-      <c r="BL37" s="2"/>
+      <c r="BJ37" s="16"/>
+      <c r="BK37" s="16"/>
+      <c r="BL37" s="16"/>
+      <c r="BM37" s="16"/>
+      <c r="BN37" s="16"/>
       <c r="BO37" s="12"/>
       <c r="BP37" s="12"/>
-      <c r="BQ37" s="2"/>
-      <c r="BR37" s="2"/>
+      <c r="BQ37" s="16"/>
+      <c r="BR37" s="16"/>
       <c r="BV37" s="12"/>
       <c r="BW37" s="12"/>
       <c r="BX37" s="2"/>
@@ -4299,8 +4332,12 @@
       <c r="DD37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="24">
+        <v>2.4</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="C38" s="24" t="s">
         <v>93</v>
       </c>
@@ -4308,11 +4345,9 @@
         <v>94</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="F38" s="14"/>
       <c r="G38" s="2"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -4354,6 +4389,10 @@
       <c r="AS38" s="11"/>
       <c r="AT38" s="12"/>
       <c r="AU38" s="12"/>
+      <c r="AV38" s="2"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AZ38" s="2"/>
       <c r="BA38" s="12"/>
       <c r="BB38" s="12"/>
       <c r="BC38" s="2"/>
@@ -4362,13 +4401,13 @@
       <c r="BG38" s="2"/>
       <c r="BH38" s="12"/>
       <c r="BI38" s="12"/>
-      <c r="BL38" s="21"/>
-      <c r="BM38" s="21"/>
-      <c r="BN38" s="21"/>
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="2"/>
+      <c r="BL38" s="2"/>
       <c r="BO38" s="12"/>
       <c r="BP38" s="12"/>
-      <c r="BQ38" s="21"/>
-      <c r="BR38" s="21"/>
+      <c r="BQ38" s="2"/>
+      <c r="BR38" s="2"/>
       <c r="BV38" s="12"/>
       <c r="BW38" s="12"/>
       <c r="BX38" s="2"/>
@@ -4394,14 +4433,20 @@
       <c r="DD38" s="2"/>
     </row>
     <row r="39">
-      <c r="C39" s="14"/>
-      <c r="D39" s="14" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="24" t="s">
         <v>95</v>
       </c>
+      <c r="D39" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="E39" s="14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
-      <c r="F39" s="14"/>
+      <c r="F39" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -4436,8 +4481,11 @@
       <c r="AL39" s="11"/>
       <c r="AM39" s="12"/>
       <c r="AN39" s="12"/>
-      <c r="AO39" s="2"/>
-      <c r="AS39" s="2"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11"/>
       <c r="AT39" s="12"/>
       <c r="AU39" s="12"/>
       <c r="AV39" s="2"/>
@@ -4452,9 +4500,9 @@
       <c r="BG39" s="2"/>
       <c r="BH39" s="12"/>
       <c r="BI39" s="12"/>
-      <c r="BJ39" s="2"/>
-      <c r="BK39" s="2"/>
-      <c r="BL39" s="2"/>
+      <c r="BJ39" s="19"/>
+      <c r="BK39" s="19"/>
+      <c r="BL39" s="19"/>
       <c r="BO39" s="12"/>
       <c r="BP39" s="12"/>
       <c r="BQ39" s="2"/>
@@ -4484,12 +4532,16 @@
       <c r="DD39" s="2"/>
     </row>
     <row r="40">
-      <c r="C40" s="18"/>
-      <c r="D40" s="18" t="s">
-        <v>96</v>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="2"/>
@@ -4519,15 +4571,18 @@
       <c r="AE40" s="11"/>
       <c r="AF40" s="12"/>
       <c r="AG40" s="12"/>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
-      <c r="AJ40" s="27"/>
-      <c r="AK40" s="27"/>
-      <c r="AL40" s="2"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="11"/>
       <c r="AM40" s="12"/>
       <c r="AN40" s="12"/>
-      <c r="AO40" s="2"/>
-      <c r="AS40" s="2"/>
+      <c r="AO40" s="11"/>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="11"/>
+      <c r="AS40" s="11"/>
       <c r="AT40" s="12"/>
       <c r="AU40" s="12"/>
       <c r="AV40" s="2"/>
@@ -4547,6 +4602,8 @@
       <c r="BL40" s="2"/>
       <c r="BO40" s="12"/>
       <c r="BP40" s="12"/>
+      <c r="BQ40" s="2"/>
+      <c r="BR40" s="2"/>
       <c r="BV40" s="12"/>
       <c r="BW40" s="12"/>
       <c r="BX40" s="2"/>
@@ -4572,15 +4629,19 @@
       <c r="DD40" s="2"/>
     </row>
     <row r="41">
-      <c r="C41" s="18"/>
-      <c r="D41" s="18" t="s">
-        <v>97</v>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="11"/>
@@ -4609,21 +4670,20 @@
       <c r="AE41" s="11"/>
       <c r="AF41" s="12"/>
       <c r="AG41" s="12"/>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="27"/>
-      <c r="AK41" s="27"/>
-      <c r="AL41" s="2"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
       <c r="AM41" s="12"/>
       <c r="AN41" s="12"/>
-      <c r="AO41" s="2"/>
-      <c r="AS41" s="2"/>
+      <c r="AO41" s="11"/>
+      <c r="AP41" s="11"/>
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="11"/>
+      <c r="AS41" s="11"/>
       <c r="AT41" s="12"/>
       <c r="AU41" s="12"/>
-      <c r="AV41" s="2"/>
-      <c r="AW41" s="2"/>
-      <c r="AX41" s="2"/>
-      <c r="AZ41" s="2"/>
       <c r="BA41" s="12"/>
       <c r="BB41" s="12"/>
       <c r="BC41" s="2"/>
@@ -4632,20 +4692,21 @@
       <c r="BG41" s="2"/>
       <c r="BH41" s="12"/>
       <c r="BI41" s="12"/>
-      <c r="BJ41" s="2"/>
-      <c r="BK41" s="2"/>
-      <c r="BL41" s="2"/>
+      <c r="BL41" s="21"/>
+      <c r="BM41" s="21"/>
+      <c r="BN41" s="21"/>
       <c r="BO41" s="12"/>
       <c r="BP41" s="12"/>
+      <c r="BQ41" s="21"/>
+      <c r="BR41" s="21"/>
       <c r="BV41" s="12"/>
       <c r="BW41" s="12"/>
       <c r="BX41" s="2"/>
       <c r="BY41" s="2"/>
       <c r="CC41" s="12"/>
       <c r="CD41" s="12"/>
-      <c r="CE41" s="19"/>
-      <c r="CF41" s="19"/>
-      <c r="CG41" s="19"/>
+      <c r="CE41" s="2"/>
+      <c r="CF41" s="2"/>
       <c r="CJ41" s="12"/>
       <c r="CK41" s="12"/>
       <c r="CL41" s="2"/>
@@ -4663,16 +4724,14 @@
       <c r="DD41" s="2"/>
     </row>
     <row r="42">
-      <c r="C42" s="18"/>
-      <c r="D42" s="18" t="s">
-        <v>99</v>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="F42" s="14"/>
       <c r="G42" s="2"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -4700,11 +4759,11 @@
       <c r="AE42" s="11"/>
       <c r="AF42" s="12"/>
       <c r="AG42" s="12"/>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="27"/>
-      <c r="AK42" s="27"/>
-      <c r="AL42" s="2"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
       <c r="AM42" s="12"/>
       <c r="AN42" s="12"/>
       <c r="AO42" s="2"/>
@@ -4744,9 +4803,7 @@
       <c r="CM42" s="2"/>
       <c r="CQ42" s="12"/>
       <c r="CR42" s="12"/>
-      <c r="CS42" s="19"/>
-      <c r="CT42" s="19"/>
-      <c r="CU42" s="19"/>
+      <c r="CS42" s="2"/>
       <c r="CW42" s="2"/>
       <c r="CX42" s="12"/>
       <c r="CY42" s="12"/>
@@ -4759,10 +4816,10 @@
     <row r="43">
       <c r="C43" s="18"/>
       <c r="D43" s="18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="2"/>
@@ -4794,8 +4851,8 @@
       <c r="AG43" s="12"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
-      <c r="AJ43" s="27"/>
-      <c r="AK43" s="27"/>
+      <c r="AJ43" s="28"/>
+      <c r="AK43" s="28"/>
       <c r="AL43" s="2"/>
       <c r="AM43" s="12"/>
       <c r="AN43" s="12"/>
@@ -4820,8 +4877,6 @@
       <c r="BL43" s="2"/>
       <c r="BO43" s="12"/>
       <c r="BP43" s="12"/>
-      <c r="BQ43" s="2"/>
-      <c r="BR43" s="2"/>
       <c r="BV43" s="12"/>
       <c r="BW43" s="12"/>
       <c r="BX43" s="2"/>
@@ -4847,15 +4902,15 @@
       <c r="DD43" s="2"/>
     </row>
     <row r="44">
-      <c r="C44" s="14"/>
-      <c r="D44" s="14" t="s">
-        <v>101</v>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="11"/>
@@ -4886,8 +4941,8 @@
       <c r="AG44" s="12"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
-      <c r="AJ44" s="27"/>
-      <c r="AK44" s="27"/>
+      <c r="AJ44" s="28"/>
+      <c r="AK44" s="28"/>
       <c r="AL44" s="2"/>
       <c r="AM44" s="12"/>
       <c r="AN44" s="12"/>
@@ -4912,16 +4967,15 @@
       <c r="BL44" s="2"/>
       <c r="BO44" s="12"/>
       <c r="BP44" s="12"/>
-      <c r="BQ44" s="2"/>
-      <c r="BR44" s="2"/>
       <c r="BV44" s="12"/>
       <c r="BW44" s="12"/>
       <c r="BX44" s="2"/>
       <c r="BY44" s="2"/>
       <c r="CC44" s="12"/>
       <c r="CD44" s="12"/>
-      <c r="CE44" s="2"/>
-      <c r="CF44" s="2"/>
+      <c r="CE44" s="19"/>
+      <c r="CF44" s="19"/>
+      <c r="CG44" s="19"/>
       <c r="CJ44" s="12"/>
       <c r="CK44" s="12"/>
       <c r="CL44" s="2"/>
@@ -4939,15 +4993,15 @@
       <c r="DD44" s="2"/>
     </row>
     <row r="45">
-      <c r="C45" s="14"/>
-      <c r="D45" s="14" t="s">
-        <v>102</v>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="11"/>
@@ -4978,8 +5032,8 @@
       <c r="AG45" s="12"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
-      <c r="AJ45" s="27"/>
-      <c r="AK45" s="27"/>
+      <c r="AJ45" s="28"/>
+      <c r="AK45" s="28"/>
       <c r="AL45" s="2"/>
       <c r="AM45" s="12"/>
       <c r="AN45" s="12"/>
@@ -5020,7 +5074,9 @@
       <c r="CM45" s="2"/>
       <c r="CQ45" s="12"/>
       <c r="CR45" s="12"/>
-      <c r="CS45" s="2"/>
+      <c r="CS45" s="19"/>
+      <c r="CT45" s="19"/>
+      <c r="CU45" s="19"/>
       <c r="CW45" s="2"/>
       <c r="CX45" s="12"/>
       <c r="CY45" s="12"/>
@@ -5031,9 +5087,9 @@
       <c r="DD45" s="2"/>
     </row>
     <row r="46">
-      <c r="C46" s="14"/>
-      <c r="D46" s="14" t="s">
-        <v>103</v>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>14</v>
@@ -5068,8 +5124,8 @@
       <c r="AG46" s="12"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
-      <c r="AJ46" s="27"/>
-      <c r="AK46" s="27"/>
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="28"/>
       <c r="AL46" s="2"/>
       <c r="AM46" s="12"/>
       <c r="AN46" s="12"/>
@@ -5120,11 +5176,109 @@
       <c r="DC46" s="2"/>
       <c r="DD46" s="2"/>
     </row>
+    <row r="47">
+      <c r="C47" s="14"/>
+      <c r="D47" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="28"/>
+      <c r="AK47" s="28"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="12"/>
+      <c r="AO47" s="2"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="12"/>
+      <c r="AU47" s="12"/>
+      <c r="AV47" s="2"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2"/>
+      <c r="AZ47" s="2"/>
+      <c r="BA47" s="12"/>
+      <c r="BB47" s="12"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="2"/>
+      <c r="BE47" s="2"/>
+      <c r="BG47" s="2"/>
+      <c r="BH47" s="12"/>
+      <c r="BI47" s="12"/>
+      <c r="BJ47" s="2"/>
+      <c r="BK47" s="2"/>
+      <c r="BL47" s="2"/>
+      <c r="BO47" s="12"/>
+      <c r="BP47" s="12"/>
+      <c r="BQ47" s="2"/>
+      <c r="BR47" s="2"/>
+      <c r="BV47" s="12"/>
+      <c r="BW47" s="12"/>
+      <c r="BX47" s="2"/>
+      <c r="BY47" s="2"/>
+      <c r="CC47" s="12"/>
+      <c r="CD47" s="12"/>
+      <c r="CE47" s="2"/>
+      <c r="CF47" s="2"/>
+      <c r="CJ47" s="12"/>
+      <c r="CK47" s="12"/>
+      <c r="CL47" s="2"/>
+      <c r="CM47" s="2"/>
+      <c r="CQ47" s="12"/>
+      <c r="CR47" s="12"/>
+      <c r="CS47" s="2"/>
+      <c r="CW47" s="2"/>
+      <c r="CX47" s="12"/>
+      <c r="CY47" s="12"/>
+      <c r="CZ47" s="2"/>
+      <c r="DA47" s="2"/>
+      <c r="DB47" s="2"/>
+      <c r="DC47" s="2"/>
+      <c r="DD47" s="2"/>
+    </row>
     <row r="48">
       <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="D48" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -5154,8 +5308,8 @@
       <c r="AG48" s="12"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
-      <c r="AJ48" s="27"/>
-      <c r="AK48" s="27"/>
+      <c r="AJ48" s="28"/>
+      <c r="AK48" s="28"/>
       <c r="AL48" s="2"/>
       <c r="AM48" s="12"/>
       <c r="AN48" s="12"/>
@@ -5207,101 +5361,182 @@
       <c r="DD48" s="2"/>
     </row>
     <row r="49">
+      <c r="C49" s="14"/>
+      <c r="D49" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
       <c r="AA49" s="11"/>
       <c r="AB49" s="11"/>
       <c r="AC49" s="11"/>
       <c r="AD49" s="11"/>
       <c r="AE49" s="11"/>
-      <c r="AJ49" s="27"/>
-    </row>
-    <row r="50">
-      <c r="C50" s="13"/>
-      <c r="D50" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="22"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="11"/>
-      <c r="AD50" s="11"/>
-      <c r="AE50" s="11"/>
-      <c r="AJ50" s="27"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="28"/>
+      <c r="AK49" s="28"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="12"/>
+      <c r="AN49" s="12"/>
+      <c r="AO49" s="2"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="12"/>
+      <c r="AU49" s="12"/>
+      <c r="AV49" s="2"/>
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="2"/>
+      <c r="AZ49" s="2"/>
+      <c r="BA49" s="12"/>
+      <c r="BB49" s="12"/>
+      <c r="BC49" s="2"/>
+      <c r="BD49" s="2"/>
+      <c r="BE49" s="2"/>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="12"/>
+      <c r="BI49" s="12"/>
+      <c r="BJ49" s="2"/>
+      <c r="BK49" s="2"/>
+      <c r="BL49" s="2"/>
+      <c r="BO49" s="12"/>
+      <c r="BP49" s="12"/>
+      <c r="BQ49" s="2"/>
+      <c r="BR49" s="2"/>
+      <c r="BV49" s="12"/>
+      <c r="BW49" s="12"/>
+      <c r="BX49" s="2"/>
+      <c r="BY49" s="2"/>
+      <c r="CC49" s="12"/>
+      <c r="CD49" s="12"/>
+      <c r="CE49" s="2"/>
+      <c r="CF49" s="2"/>
+      <c r="CJ49" s="12"/>
+      <c r="CK49" s="12"/>
+      <c r="CL49" s="2"/>
+      <c r="CM49" s="2"/>
+      <c r="CQ49" s="12"/>
+      <c r="CR49" s="12"/>
+      <c r="CS49" s="2"/>
+      <c r="CW49" s="2"/>
+      <c r="CX49" s="12"/>
+      <c r="CY49" s="12"/>
+      <c r="CZ49" s="2"/>
+      <c r="DA49" s="2"/>
+      <c r="DB49" s="2"/>
+      <c r="DC49" s="2"/>
+      <c r="DD49" s="2"/>
     </row>
     <row r="51">
-      <c r="C51" s="13"/>
-      <c r="D51" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="16"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
       <c r="AA51" s="11"/>
       <c r="AB51" s="11"/>
       <c r="AC51" s="11"/>
       <c r="AD51" s="11"/>
       <c r="AE51" s="11"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="28"/>
+      <c r="AK51" s="28"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="12"/>
+      <c r="AN51" s="12"/>
+      <c r="AO51" s="2"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="12"/>
+      <c r="AU51" s="12"/>
+      <c r="AV51" s="2"/>
+      <c r="AW51" s="2"/>
+      <c r="AX51" s="2"/>
+      <c r="AZ51" s="2"/>
+      <c r="BA51" s="12"/>
+      <c r="BB51" s="12"/>
+      <c r="BC51" s="2"/>
+      <c r="BD51" s="2"/>
+      <c r="BE51" s="2"/>
+      <c r="BG51" s="2"/>
+      <c r="BH51" s="12"/>
+      <c r="BI51" s="12"/>
+      <c r="BJ51" s="2"/>
+      <c r="BK51" s="2"/>
+      <c r="BL51" s="2"/>
+      <c r="BO51" s="12"/>
+      <c r="BP51" s="12"/>
+      <c r="BQ51" s="2"/>
+      <c r="BR51" s="2"/>
+      <c r="BV51" s="12"/>
+      <c r="BW51" s="12"/>
+      <c r="BX51" s="2"/>
+      <c r="BY51" s="2"/>
+      <c r="CC51" s="12"/>
+      <c r="CD51" s="12"/>
+      <c r="CE51" s="2"/>
+      <c r="CF51" s="2"/>
+      <c r="CJ51" s="12"/>
+      <c r="CK51" s="12"/>
+      <c r="CL51" s="2"/>
+      <c r="CM51" s="2"/>
+      <c r="CQ51" s="12"/>
+      <c r="CR51" s="12"/>
+      <c r="CS51" s="2"/>
+      <c r="CW51" s="2"/>
+      <c r="CX51" s="12"/>
+      <c r="CY51" s="12"/>
+      <c r="CZ51" s="2"/>
+      <c r="DA51" s="2"/>
+      <c r="DB51" s="2"/>
+      <c r="DC51" s="2"/>
+      <c r="DD51" s="2"/>
     </row>
     <row r="52">
-      <c r="C52" s="13"/>
-      <c r="D52" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="19"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
@@ -5326,13 +5561,14 @@
       <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
       <c r="AE52" s="11"/>
+      <c r="AJ52" s="28"/>
     </row>
     <row r="53">
       <c r="C53" s="13"/>
       <c r="D53" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
-      <c r="E53" s="20"/>
+      <c r="E53" s="22"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
@@ -5357,12 +5593,14 @@
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
+      <c r="AJ53" s="28"/>
     </row>
     <row r="54">
+      <c r="C54" s="13"/>
       <c r="D54" s="13" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
-      <c r="E54" s="21"/>
+      <c r="E54" s="16"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
@@ -5389,6 +5627,11 @@
       <c r="AE54" s="11"/>
     </row>
     <row r="55">
+      <c r="C55" s="13"/>
+      <c r="D55" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="19"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
@@ -5415,6 +5658,11 @@
       <c r="AE55" s="11"/>
     </row>
     <row r="56">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="20"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
@@ -5441,6 +5689,10 @@
       <c r="AE56" s="11"/>
     </row>
     <row r="57">
+      <c r="D57" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="21"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
@@ -30607,6 +30859,84 @@
       <c r="AC1024" s="11"/>
       <c r="AD1024" s="11"/>
       <c r="AE1024" s="11"/>
+    </row>
+    <row r="1025">
+      <c r="H1025" s="11"/>
+      <c r="I1025" s="11"/>
+      <c r="J1025" s="11"/>
+      <c r="K1025" s="11"/>
+      <c r="L1025" s="11"/>
+      <c r="M1025" s="11"/>
+      <c r="N1025" s="11"/>
+      <c r="O1025" s="11"/>
+      <c r="P1025" s="11"/>
+      <c r="Q1025" s="11"/>
+      <c r="R1025" s="11"/>
+      <c r="S1025" s="11"/>
+      <c r="T1025" s="11"/>
+      <c r="U1025" s="11"/>
+      <c r="V1025" s="11"/>
+      <c r="W1025" s="11"/>
+      <c r="X1025" s="11"/>
+      <c r="Y1025" s="11"/>
+      <c r="Z1025" s="11"/>
+      <c r="AA1025" s="11"/>
+      <c r="AB1025" s="11"/>
+      <c r="AC1025" s="11"/>
+      <c r="AD1025" s="11"/>
+      <c r="AE1025" s="11"/>
+    </row>
+    <row r="1026">
+      <c r="H1026" s="11"/>
+      <c r="I1026" s="11"/>
+      <c r="J1026" s="11"/>
+      <c r="K1026" s="11"/>
+      <c r="L1026" s="11"/>
+      <c r="M1026" s="11"/>
+      <c r="N1026" s="11"/>
+      <c r="O1026" s="11"/>
+      <c r="P1026" s="11"/>
+      <c r="Q1026" s="11"/>
+      <c r="R1026" s="11"/>
+      <c r="S1026" s="11"/>
+      <c r="T1026" s="11"/>
+      <c r="U1026" s="11"/>
+      <c r="V1026" s="11"/>
+      <c r="W1026" s="11"/>
+      <c r="X1026" s="11"/>
+      <c r="Y1026" s="11"/>
+      <c r="Z1026" s="11"/>
+      <c r="AA1026" s="11"/>
+      <c r="AB1026" s="11"/>
+      <c r="AC1026" s="11"/>
+      <c r="AD1026" s="11"/>
+      <c r="AE1026" s="11"/>
+    </row>
+    <row r="1027">
+      <c r="H1027" s="11"/>
+      <c r="I1027" s="11"/>
+      <c r="J1027" s="11"/>
+      <c r="K1027" s="11"/>
+      <c r="L1027" s="11"/>
+      <c r="M1027" s="11"/>
+      <c r="N1027" s="11"/>
+      <c r="O1027" s="11"/>
+      <c r="P1027" s="11"/>
+      <c r="Q1027" s="11"/>
+      <c r="R1027" s="11"/>
+      <c r="S1027" s="11"/>
+      <c r="T1027" s="11"/>
+      <c r="U1027" s="11"/>
+      <c r="V1027" s="11"/>
+      <c r="W1027" s="11"/>
+      <c r="X1027" s="11"/>
+      <c r="Y1027" s="11"/>
+      <c r="Z1027" s="11"/>
+      <c r="AA1027" s="11"/>
+      <c r="AB1027" s="11"/>
+      <c r="AC1027" s="11"/>
+      <c r="AD1027" s="11"/>
+      <c r="AE1027" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -30634,21 +30964,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28">
+      <c r="A1" s="29">
         <v>2.1</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>104</v>
+      <c r="B1" s="29" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="13" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="13" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
@@ -30656,7 +30986,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
@@ -30664,7 +30994,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -30672,7 +31002,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
@@ -30680,7 +31010,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Online Dictionary Project Plan.xlsx
+++ b/documents/Online Dictionary Project Plan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="127">
   <si>
     <t>Notes : You need to update the timeline on the right to reflect the current dates.  Tasks must be assigned to one (and only one) owner, and each owner must have a different color associated with them (it cannot be red or green).  Each requirement from the requirements document should be included, and referenced by number.  You should also include any other tasks that will take time (setup, testing, documentation, etc).  Each "day" on the calendar represents 2 hours of work.  You should break down your tasks into chunks of 1-4 "days".   The tasks below are for demonstration purposes only - replace them with your requirements and tasks.  The yellow bars on the calendar represent weekends - you probably want to take those (and any breaks) into account while planning!</t>
   </si>
@@ -107,6 +107,9 @@
     <t>AWS and github</t>
   </si>
   <si>
+    <t>4 days</t>
+  </si>
+  <si>
     <t>Akhil</t>
   </si>
   <si>
@@ -134,16 +137,25 @@
     <t>2.0.4</t>
   </si>
   <si>
-    <t>Home page backend logic</t>
+    <t>CSS implementation for home and meaning page</t>
+  </si>
+  <si>
+    <t>4 Days</t>
   </si>
   <si>
     <t>2.0.5</t>
   </si>
   <si>
+    <t>Home page backend logic</t>
+  </si>
+  <si>
+    <t>2.0.6</t>
+  </si>
+  <si>
     <t>Integrating Front End &amp; Backend</t>
   </si>
   <si>
-    <t>2.0.6</t>
+    <t>2.0.7</t>
   </si>
   <si>
     <t>Unit Testing</t>
@@ -173,13 +185,19 @@
     <t>API and Endpoint Creation</t>
   </si>
   <si>
+    <t>UI modifications on all pages</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>Added Word of Day and Trending Word</t>
+  </si>
+  <si>
     <t>2.1.4</t>
   </si>
   <si>
     <t>Create front end for display of meaning</t>
-  </si>
-  <si>
-    <t>2.1.5</t>
   </si>
   <si>
     <t>Create backend logic for word search</t>
@@ -233,9 +251,6 @@
     <t>API Integration with Client Side Data Processing</t>
   </si>
   <si>
-    <t>Add audio Links to words and cache audio</t>
-  </si>
-  <si>
     <t>UI for audio pronunciation</t>
   </si>
   <si>
@@ -248,7 +263,7 @@
     <t>2.2.6</t>
   </si>
   <si>
-    <t>Create Audio listen button and test</t>
+    <t>Create Audio listen button / audio integration in front end</t>
   </si>
   <si>
     <t>2.2.7</t>
@@ -260,13 +275,22 @@
     <t>2.3.1</t>
   </si>
   <si>
-    <t>UI Enhancements</t>
-  </si>
-  <si>
-    <t>7 Days</t>
+    <t>Definition, Meaning , Example Usage , Audio Modifications</t>
   </si>
   <si>
     <t>2.3.2</t>
+  </si>
+  <si>
+    <t>APIS for Word of the day, Logging User Searches, Caching Audios, Trending Word</t>
+  </si>
+  <si>
+    <t>3 Days</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>API integration with backend</t>
   </si>
   <si>
     <t>Solr for indexing</t>
@@ -275,16 +299,19 @@
     <t>7 days</t>
   </si>
   <si>
-    <t>2.3.3</t>
-  </si>
-  <si>
     <t>POS Tagging for words</t>
   </si>
   <si>
-    <t>3 Days</t>
+    <t>2.3.4</t>
   </si>
   <si>
-    <t>2.3.4</t>
+    <t>caching google audio and storing audio link with post req</t>
+  </si>
+  <si>
+    <t>5 Days</t>
+  </si>
+  <si>
+    <t>2.3.5</t>
   </si>
   <si>
     <t>Perform semantic analysis to show sentences with context</t>
@@ -321,6 +348,9 @@
   </si>
   <si>
     <t>Application Document Prepration</t>
+  </si>
+  <si>
+    <t>7 Days</t>
   </si>
   <si>
     <t>Test Document Creation</t>
@@ -385,7 +415,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -419,8 +449,13 @@
       <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +518,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
@@ -506,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -566,25 +607,35 @@
     <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -617,15 +668,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.63"/>
-    <col customWidth="1" min="2" max="2" width="30.88"/>
+    <col customWidth="1" min="2" max="2" width="30.63"/>
     <col customWidth="1" min="3" max="3" width="8.63"/>
-    <col customWidth="1" min="4" max="4" width="43.75"/>
+    <col customWidth="1" min="4" max="4" width="45.88"/>
     <col customWidth="1" min="5" max="5" width="9.88"/>
     <col customWidth="1" min="6" max="6" width="8.63"/>
     <col customWidth="1" min="7" max="7" width="4.63"/>
     <col customWidth="1" hidden="1" min="8" max="31" width="2.63"/>
     <col customWidth="1" min="32" max="34" width="2.63"/>
-    <col customWidth="1" min="35" max="35" width="2.63" outlineLevel="1"/>
+    <col customWidth="1" min="35" max="35" width="0.38" outlineLevel="1"/>
     <col customWidth="1" min="36" max="36" width="2.63"/>
     <col customWidth="1" min="37" max="66" width="2.63" outlineLevel="1"/>
     <col customWidth="1" min="67" max="67" width="2.63"/>
@@ -1663,10 +1714,10 @@
         <v>30</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="11"/>
@@ -1699,7 +1750,7 @@
       <c r="AI10" s="22"/>
       <c r="AJ10" s="22"/>
       <c r="AK10" s="22"/>
-      <c r="AL10" s="11"/>
+      <c r="AL10" s="23"/>
       <c r="AM10" s="12"/>
       <c r="AN10" s="12"/>
       <c r="AO10" s="11"/>
@@ -1756,13 +1807,13 @@
         <v>2.0</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>14</v>
@@ -1857,10 +1908,10 @@
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>18</v>
@@ -1951,10 +2002,10 @@
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>14</v>
@@ -2044,16 +2095,16 @@
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="11"/>
@@ -2089,10 +2140,12 @@
       <c r="AL14" s="11"/>
       <c r="AM14" s="12"/>
       <c r="AN14" s="12"/>
+      <c r="AS14" s="21"/>
       <c r="AT14" s="12"/>
       <c r="AU14" s="12"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="12"/>
       <c r="BB14" s="12"/>
@@ -2137,16 +2190,16 @@
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="11"/>
@@ -2230,16 +2283,16 @@
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="11"/>
@@ -2320,23 +2373,19 @@
       <c r="DD16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="18">
-        <v>2.1</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>45</v>
-      </c>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="11"/>
@@ -2369,11 +2418,9 @@
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
       <c r="AK17" s="11"/>
-      <c r="AL17" s="19"/>
+      <c r="AL17" s="11"/>
       <c r="AM17" s="12"/>
       <c r="AN17" s="12"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="19"/>
       <c r="AT17" s="12"/>
       <c r="AU17" s="12"/>
       <c r="AW17" s="2"/>
@@ -2419,16 +2466,20 @@
       <c r="DD17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="C18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>21</v>
@@ -2464,13 +2515,13 @@
       <c r="AI18" s="11"/>
       <c r="AJ18" s="11"/>
       <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
+      <c r="AL18" s="19"/>
       <c r="AM18" s="12"/>
       <c r="AN18" s="12"/>
-      <c r="AQ18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
       <c r="AT18" s="12"/>
       <c r="AU18" s="12"/>
-      <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
       <c r="AZ18" s="2"/>
@@ -2517,13 +2568,17 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="D19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -2552,9 +2607,13 @@
       <c r="AF19" s="12"/>
       <c r="AG19" s="12"/>
       <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
       <c r="AM19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AR19" s="19"/>
+      <c r="AQ19" s="19"/>
       <c r="AT19" s="12"/>
       <c r="AU19" s="12"/>
       <c r="AV19" s="2"/>
@@ -2604,17 +2663,13 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>25</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="2"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -2643,14 +2698,9 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
       <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
       <c r="AM20" s="12"/>
       <c r="AN20" s="12"/>
-      <c r="AR20" s="2"/>
-      <c r="AS20" s="2"/>
+      <c r="AR20" s="19"/>
       <c r="AT20" s="12"/>
       <c r="AU20" s="12"/>
       <c r="AV20" s="2"/>
@@ -2699,17 +2749,15 @@
     <row r="21">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="18" t="s">
-        <v>55</v>
-      </c>
+      <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="11"/>
@@ -2741,14 +2789,13 @@
       <c r="AH21" s="11"/>
       <c r="AM21" s="12"/>
       <c r="AN21" s="12"/>
-      <c r="AP21" s="16"/>
-      <c r="AQ21" s="16"/>
       <c r="AT21" s="12"/>
       <c r="AU21" s="12"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
-      <c r="AZ21" s="2"/>
+      <c r="AY21" s="21"/>
+      <c r="AZ21" s="21"/>
       <c r="BA21" s="12"/>
       <c r="BB21" s="12"/>
       <c r="BC21" s="2"/>
@@ -2757,7 +2804,7 @@
       <c r="BG21" s="2"/>
       <c r="BH21" s="12"/>
       <c r="BI21" s="12"/>
-      <c r="BJ21" s="2"/>
+      <c r="BJ21" s="21"/>
       <c r="BK21" s="2"/>
       <c r="BL21" s="2"/>
       <c r="BO21" s="12"/>
@@ -2792,16 +2839,16 @@
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="11"/>
@@ -2837,7 +2884,8 @@
       <c r="AL22" s="11"/>
       <c r="AM22" s="12"/>
       <c r="AN22" s="12"/>
-      <c r="AO22" s="16"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
       <c r="AT22" s="12"/>
       <c r="AU22" s="12"/>
       <c r="AV22" s="2"/>
@@ -2852,8 +2900,8 @@
       <c r="BG22" s="2"/>
       <c r="BH22" s="12"/>
       <c r="BI22" s="12"/>
-      <c r="BJ22" s="2"/>
-      <c r="BK22" s="2"/>
+      <c r="BJ22" s="25"/>
+      <c r="BK22" s="25"/>
       <c r="BL22" s="2"/>
       <c r="BO22" s="12"/>
       <c r="BP22" s="12"/>
@@ -2893,10 +2941,10 @@
         <v>61</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="11"/>
@@ -2932,8 +2980,8 @@
       <c r="AL23" s="11"/>
       <c r="AM23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AR23" s="16"/>
-      <c r="AS23" s="16"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
       <c r="AT23" s="12"/>
       <c r="AU23" s="12"/>
       <c r="AV23" s="2"/>
@@ -2980,23 +3028,19 @@
       <c r="DD23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="24">
-        <v>2.2</v>
-      </c>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>64</v>
-      </c>
       <c r="E24" s="14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="11"/>
@@ -3026,18 +3070,16 @@
       <c r="AF24" s="12"/>
       <c r="AG24" s="12"/>
       <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
       <c r="AM24" s="12"/>
       <c r="AN24" s="12"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="25"/>
-      <c r="AQ24" s="25"/>
-      <c r="AS24" s="2"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
       <c r="AT24" s="12"/>
       <c r="AU24" s="12"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AZ24" s="2"/>
       <c r="BA24" s="12"/>
       <c r="BB24" s="12"/>
       <c r="BC24" s="2"/>
@@ -3078,17 +3120,19 @@
       <c r="DD24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="F25" s="14" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="11"/>
@@ -3124,14 +3168,13 @@
       <c r="AL25" s="11"/>
       <c r="AM25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AO25" s="26"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="26"/>
-      <c r="AR25" s="25"/>
-      <c r="AS25" s="25"/>
+      <c r="AO25" s="16"/>
       <c r="AT25" s="12"/>
       <c r="AU25" s="12"/>
-      <c r="AV25" s="22"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AZ25" s="2"/>
       <c r="BA25" s="12"/>
       <c r="BB25" s="12"/>
       <c r="BC25" s="2"/>
@@ -3172,19 +3215,19 @@
       <c r="DD25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="24" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="18" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="11"/>
@@ -3220,13 +3263,14 @@
       <c r="AL26" s="11"/>
       <c r="AM26" s="12"/>
       <c r="AN26" s="12"/>
-      <c r="AO26" s="11"/>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="11"/>
-      <c r="AR26" s="11"/>
-      <c r="AS26" s="19"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
       <c r="AT26" s="12"/>
       <c r="AU26" s="12"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AZ26" s="2"/>
       <c r="BA26" s="12"/>
       <c r="BB26" s="12"/>
       <c r="BC26" s="2"/>
@@ -3267,19 +3311,23 @@
       <c r="DD26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="26">
+        <v>2.2</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="26" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="11"/>
@@ -3315,15 +3363,12 @@
       <c r="AL27" s="11"/>
       <c r="AM27" s="12"/>
       <c r="AN27" s="12"/>
-      <c r="AO27" s="11"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="11"/>
-      <c r="AR27" s="11"/>
-      <c r="AS27" s="11"/>
+      <c r="AO27" s="27"/>
+      <c r="AP27" s="27"/>
+      <c r="AQ27" s="27"/>
+      <c r="AS27" s="2"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
-      <c r="AV27" s="19"/>
-      <c r="AW27" s="19"/>
       <c r="BA27" s="12"/>
       <c r="BB27" s="12"/>
       <c r="BC27" s="2"/>
@@ -3364,19 +3409,17 @@
       <c r="DD27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="24" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>72</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="11"/>
@@ -3412,15 +3455,14 @@
       <c r="AL28" s="11"/>
       <c r="AM28" s="12"/>
       <c r="AN28" s="12"/>
-      <c r="AO28" s="11"/>
-      <c r="AP28" s="11"/>
-      <c r="AQ28" s="11"/>
-      <c r="AR28" s="11"/>
-      <c r="AS28" s="11"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="28"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="27"/>
       <c r="AT28" s="12"/>
       <c r="AU28" s="12"/>
-      <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
+      <c r="AV28" s="22"/>
       <c r="BA28" s="12"/>
       <c r="BB28" s="12"/>
       <c r="BC28" s="2"/>
@@ -3461,16 +3503,16 @@
       <c r="DD28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="24" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>73</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>21</v>
@@ -3513,7 +3555,7 @@
       <c r="AP29" s="11"/>
       <c r="AQ29" s="11"/>
       <c r="AR29" s="11"/>
-      <c r="AS29" s="11"/>
+      <c r="AS29" s="19"/>
       <c r="AT29" s="12"/>
       <c r="AU29" s="12"/>
       <c r="BA29" s="12"/>
@@ -3556,19 +3598,19 @@
       <c r="DD29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>74</v>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="11"/>
@@ -3611,6 +3653,8 @@
       <c r="AS30" s="11"/>
       <c r="AT30" s="12"/>
       <c r="AU30" s="12"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
       <c r="BA30" s="12"/>
       <c r="BB30" s="12"/>
       <c r="BC30" s="2"/>
@@ -3651,19 +3695,19 @@
       <c r="DD30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>76</v>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="11"/>
@@ -3706,6 +3750,8 @@
       <c r="AS31" s="11"/>
       <c r="AT31" s="12"/>
       <c r="AU31" s="12"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="19"/>
       <c r="BA31" s="12"/>
       <c r="BB31" s="12"/>
       <c r="BC31" s="2"/>
@@ -3746,19 +3792,19 @@
       <c r="DD31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="24" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>78</v>
+      <c r="D32" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="11"/>
@@ -3841,19 +3887,19 @@
       <c r="DD32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>42</v>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="11"/>
@@ -3906,7 +3952,7 @@
       <c r="BI33" s="12"/>
       <c r="BJ33" s="2"/>
       <c r="BK33" s="2"/>
-      <c r="BL33" s="2"/>
+      <c r="BL33" s="30"/>
       <c r="BO33" s="12"/>
       <c r="BP33" s="12"/>
       <c r="BQ33" s="2"/>
@@ -3936,22 +3982,20 @@
       <c r="DD33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="18">
-        <v>2.3</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="18" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="26" t="s">
         <v>82</v>
       </c>
+      <c r="D34" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="E34" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3993,10 +4037,6 @@
       <c r="AS34" s="11"/>
       <c r="AT34" s="12"/>
       <c r="AU34" s="12"/>
-      <c r="AV34" s="2"/>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="2"/>
-      <c r="AZ34" s="2"/>
       <c r="BA34" s="12"/>
       <c r="BB34" s="12"/>
       <c r="BC34" s="2"/>
@@ -4006,8 +4046,9 @@
       <c r="BH34" s="12"/>
       <c r="BI34" s="12"/>
       <c r="BJ34" s="2"/>
-      <c r="BK34" s="2"/>
-      <c r="BL34" s="2"/>
+      <c r="BK34" s="21"/>
+      <c r="BL34" s="21"/>
+      <c r="BM34" s="21"/>
       <c r="BO34" s="12"/>
       <c r="BP34" s="12"/>
       <c r="BQ34" s="2"/>
@@ -4037,19 +4078,19 @@
       <c r="DD34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="18" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>85</v>
+      <c r="D35" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="11"/>
@@ -4092,10 +4133,10 @@
       <c r="AS35" s="11"/>
       <c r="AT35" s="12"/>
       <c r="AU35" s="12"/>
-      <c r="AV35" s="16"/>
-      <c r="AW35" s="16"/>
-      <c r="AX35" s="16"/>
-      <c r="AZ35" s="2"/>
+      <c r="AW35" s="22"/>
+      <c r="AX35" s="22"/>
+      <c r="AY35" s="31"/>
+      <c r="AZ35" s="31"/>
       <c r="BA35" s="12"/>
       <c r="BB35" s="12"/>
       <c r="BC35" s="2"/>
@@ -4104,8 +4145,8 @@
       <c r="BG35" s="2"/>
       <c r="BH35" s="12"/>
       <c r="BI35" s="12"/>
-      <c r="BJ35" s="2"/>
-      <c r="BK35" s="2"/>
+      <c r="BJ35" s="28"/>
+      <c r="BK35" s="28"/>
       <c r="BL35" s="2"/>
       <c r="BO35" s="12"/>
       <c r="BP35" s="12"/>
@@ -4136,16 +4177,20 @@
       <c r="DD35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="18">
+        <v>2.3</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="C36" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>88</v>
-      </c>
       <c r="E36" s="14" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="2"/>
@@ -4192,7 +4237,7 @@
       <c r="AV36" s="2"/>
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
-      <c r="AZ36" s="2"/>
+      <c r="AZ36" s="19"/>
       <c r="BA36" s="12"/>
       <c r="BB36" s="12"/>
       <c r="BC36" s="2"/>
@@ -4201,7 +4246,7 @@
       <c r="BG36" s="2"/>
       <c r="BH36" s="12"/>
       <c r="BI36" s="12"/>
-      <c r="BJ36" s="2"/>
+      <c r="BJ36" s="19"/>
       <c r="BK36" s="2"/>
       <c r="BL36" s="2"/>
       <c r="BO36" s="12"/>
@@ -4236,13 +4281,13 @@
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="2"/>
@@ -4286,9 +4331,9 @@
       <c r="AS37" s="11"/>
       <c r="AT37" s="12"/>
       <c r="AU37" s="12"/>
-      <c r="AV37" s="2"/>
-      <c r="AW37" s="2"/>
-      <c r="AX37" s="2"/>
+      <c r="AV37" s="16"/>
+      <c r="AW37" s="16"/>
+      <c r="AX37" s="16"/>
       <c r="AZ37" s="2"/>
       <c r="BA37" s="12"/>
       <c r="BB37" s="12"/>
@@ -4298,15 +4343,14 @@
       <c r="BG37" s="2"/>
       <c r="BH37" s="12"/>
       <c r="BI37" s="12"/>
-      <c r="BJ37" s="16"/>
-      <c r="BK37" s="16"/>
-      <c r="BL37" s="16"/>
-      <c r="BM37" s="16"/>
-      <c r="BN37" s="16"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="19"/>
+      <c r="BL37" s="19"/>
+      <c r="BM37" s="19"/>
       <c r="BO37" s="12"/>
       <c r="BP37" s="12"/>
-      <c r="BQ37" s="16"/>
-      <c r="BR37" s="16"/>
+      <c r="BQ37" s="2"/>
+      <c r="BR37" s="2"/>
       <c r="BV37" s="12"/>
       <c r="BW37" s="12"/>
       <c r="BX37" s="2"/>
@@ -4332,22 +4376,20 @@
       <c r="DD37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="24">
-        <v>2.4</v>
-      </c>
-      <c r="B38" s="24" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>94</v>
-      </c>
       <c r="E38" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -4389,10 +4431,8 @@
       <c r="AS38" s="11"/>
       <c r="AT38" s="12"/>
       <c r="AU38" s="12"/>
-      <c r="AV38" s="2"/>
-      <c r="AW38" s="2"/>
-      <c r="AX38" s="2"/>
-      <c r="AZ38" s="2"/>
+      <c r="AY38" s="16"/>
+      <c r="AZ38" s="16"/>
       <c r="BA38" s="12"/>
       <c r="BB38" s="12"/>
       <c r="BC38" s="2"/>
@@ -4402,8 +4442,6 @@
       <c r="BH38" s="12"/>
       <c r="BI38" s="12"/>
       <c r="BJ38" s="2"/>
-      <c r="BK38" s="2"/>
-      <c r="BL38" s="2"/>
       <c r="BO38" s="12"/>
       <c r="BP38" s="12"/>
       <c r="BQ38" s="2"/>
@@ -4433,19 +4471,19 @@
       <c r="DD38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>96</v>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="11"/>
@@ -4488,10 +4526,9 @@
       <c r="AS39" s="11"/>
       <c r="AT39" s="12"/>
       <c r="AU39" s="12"/>
-      <c r="AV39" s="2"/>
-      <c r="AW39" s="2"/>
-      <c r="AX39" s="2"/>
-      <c r="AZ39" s="2"/>
+      <c r="AV39" s="16"/>
+      <c r="AW39" s="16"/>
+      <c r="AX39" s="16"/>
       <c r="BA39" s="12"/>
       <c r="BB39" s="12"/>
       <c r="BC39" s="2"/>
@@ -4500,9 +4537,9 @@
       <c r="BG39" s="2"/>
       <c r="BH39" s="12"/>
       <c r="BI39" s="12"/>
-      <c r="BJ39" s="19"/>
-      <c r="BK39" s="19"/>
-      <c r="BL39" s="19"/>
+      <c r="BJ39" s="16"/>
+      <c r="BK39" s="16"/>
+      <c r="BL39" s="16"/>
       <c r="BO39" s="12"/>
       <c r="BP39" s="12"/>
       <c r="BQ39" s="2"/>
@@ -4532,16 +4569,16 @@
       <c r="DD39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>98</v>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="2"/>
@@ -4599,7 +4636,7 @@
       <c r="BI40" s="12"/>
       <c r="BJ40" s="2"/>
       <c r="BK40" s="2"/>
-      <c r="BL40" s="2"/>
+      <c r="BL40" s="28"/>
       <c r="BO40" s="12"/>
       <c r="BP40" s="12"/>
       <c r="BQ40" s="2"/>
@@ -4629,19 +4666,19 @@
       <c r="DD40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>100</v>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="11"/>
@@ -4684,6 +4721,11 @@
       <c r="AS41" s="11"/>
       <c r="AT41" s="12"/>
       <c r="AU41" s="12"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="22"/>
+      <c r="AZ41" s="27"/>
       <c r="BA41" s="12"/>
       <c r="BB41" s="12"/>
       <c r="BC41" s="2"/>
@@ -4692,13 +4734,13 @@
       <c r="BG41" s="2"/>
       <c r="BH41" s="12"/>
       <c r="BI41" s="12"/>
-      <c r="BL41" s="21"/>
-      <c r="BM41" s="21"/>
-      <c r="BN41" s="21"/>
+      <c r="BJ41" s="27"/>
+      <c r="BK41" s="27"/>
+      <c r="BL41" s="27"/>
       <c r="BO41" s="12"/>
       <c r="BP41" s="12"/>
-      <c r="BQ41" s="21"/>
-      <c r="BR41" s="21"/>
+      <c r="BQ41" s="2"/>
+      <c r="BR41" s="2"/>
       <c r="BV41" s="12"/>
       <c r="BW41" s="12"/>
       <c r="BX41" s="2"/>
@@ -4724,12 +4766,16 @@
       <c r="DD41" s="2"/>
     </row>
     <row r="42">
-      <c r="C42" s="14"/>
-      <c r="D42" s="14" t="s">
-        <v>101</v>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="2"/>
@@ -4766,8 +4812,11 @@
       <c r="AL42" s="11"/>
       <c r="AM42" s="12"/>
       <c r="AN42" s="12"/>
-      <c r="AO42" s="2"/>
-      <c r="AS42" s="2"/>
+      <c r="AO42" s="11"/>
+      <c r="AP42" s="11"/>
+      <c r="AQ42" s="11"/>
+      <c r="AR42" s="11"/>
+      <c r="AS42" s="11"/>
       <c r="AT42" s="12"/>
       <c r="AU42" s="12"/>
       <c r="AV42" s="2"/>
@@ -4782,13 +4831,15 @@
       <c r="BG42" s="2"/>
       <c r="BH42" s="12"/>
       <c r="BI42" s="12"/>
-      <c r="BJ42" s="2"/>
-      <c r="BK42" s="2"/>
-      <c r="BL42" s="2"/>
+      <c r="BJ42" s="16"/>
+      <c r="BK42" s="16"/>
+      <c r="BL42" s="16"/>
+      <c r="BM42" s="16"/>
+      <c r="BN42" s="16"/>
       <c r="BO42" s="12"/>
       <c r="BP42" s="12"/>
-      <c r="BQ42" s="2"/>
-      <c r="BR42" s="2"/>
+      <c r="BQ42" s="16"/>
+      <c r="BR42" s="16"/>
       <c r="BV42" s="12"/>
       <c r="BW42" s="12"/>
       <c r="BX42" s="2"/>
@@ -4814,12 +4865,20 @@
       <c r="DD42" s="2"/>
     </row>
     <row r="43">
-      <c r="C43" s="18"/>
-      <c r="D43" s="18" t="s">
+      <c r="A43" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>102</v>
       </c>
+      <c r="D43" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="E43" s="14" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="2"/>
@@ -4849,15 +4908,18 @@
       <c r="AE43" s="11"/>
       <c r="AF43" s="12"/>
       <c r="AG43" s="12"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="28"/>
-      <c r="AK43" s="28"/>
-      <c r="AL43" s="2"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
       <c r="AM43" s="12"/>
       <c r="AN43" s="12"/>
-      <c r="AO43" s="2"/>
-      <c r="AS43" s="2"/>
+      <c r="AO43" s="11"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="11"/>
+      <c r="AS43" s="11"/>
       <c r="AT43" s="12"/>
       <c r="AU43" s="12"/>
       <c r="AV43" s="2"/>
@@ -4877,6 +4939,8 @@
       <c r="BL43" s="2"/>
       <c r="BO43" s="12"/>
       <c r="BP43" s="12"/>
+      <c r="BQ43" s="2"/>
+      <c r="BR43" s="2"/>
       <c r="BV43" s="12"/>
       <c r="BW43" s="12"/>
       <c r="BX43" s="2"/>
@@ -4902,15 +4966,19 @@
       <c r="DD43" s="2"/>
     </row>
     <row r="44">
-      <c r="C44" s="18"/>
-      <c r="D44" s="18" t="s">
-        <v>103</v>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="11"/>
@@ -4939,15 +5007,18 @@
       <c r="AE44" s="11"/>
       <c r="AF44" s="12"/>
       <c r="AG44" s="12"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="28"/>
-      <c r="AK44" s="28"/>
-      <c r="AL44" s="2"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="11"/>
       <c r="AM44" s="12"/>
       <c r="AN44" s="12"/>
-      <c r="AO44" s="2"/>
-      <c r="AS44" s="2"/>
+      <c r="AO44" s="11"/>
+      <c r="AP44" s="11"/>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="11"/>
+      <c r="AS44" s="11"/>
       <c r="AT44" s="12"/>
       <c r="AU44" s="12"/>
       <c r="AV44" s="2"/>
@@ -4962,20 +5033,21 @@
       <c r="BG44" s="2"/>
       <c r="BH44" s="12"/>
       <c r="BI44" s="12"/>
-      <c r="BJ44" s="2"/>
-      <c r="BK44" s="2"/>
-      <c r="BL44" s="2"/>
+      <c r="BJ44" s="19"/>
+      <c r="BK44" s="19"/>
+      <c r="BL44" s="19"/>
       <c r="BO44" s="12"/>
       <c r="BP44" s="12"/>
+      <c r="BQ44" s="2"/>
+      <c r="BR44" s="2"/>
       <c r="BV44" s="12"/>
       <c r="BW44" s="12"/>
       <c r="BX44" s="2"/>
       <c r="BY44" s="2"/>
       <c r="CC44" s="12"/>
       <c r="CD44" s="12"/>
-      <c r="CE44" s="19"/>
-      <c r="CF44" s="19"/>
-      <c r="CG44" s="19"/>
+      <c r="CE44" s="2"/>
+      <c r="CF44" s="2"/>
       <c r="CJ44" s="12"/>
       <c r="CK44" s="12"/>
       <c r="CL44" s="2"/>
@@ -4993,16 +5065,18 @@
       <c r="DD44" s="2"/>
     </row>
     <row r="45">
-      <c r="C45" s="18"/>
-      <c r="D45" s="18" t="s">
-        <v>105</v>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>104</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F45" s="14"/>
       <c r="G45" s="2"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -5030,15 +5104,18 @@
       <c r="AE45" s="11"/>
       <c r="AF45" s="12"/>
       <c r="AG45" s="12"/>
-      <c r="AH45" s="2"/>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="28"/>
-      <c r="AK45" s="28"/>
-      <c r="AL45" s="2"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="11"/>
       <c r="AM45" s="12"/>
       <c r="AN45" s="12"/>
-      <c r="AO45" s="2"/>
-      <c r="AS45" s="2"/>
+      <c r="AO45" s="11"/>
+      <c r="AP45" s="11"/>
+      <c r="AQ45" s="11"/>
+      <c r="AR45" s="11"/>
+      <c r="AS45" s="11"/>
       <c r="AT45" s="12"/>
       <c r="AU45" s="12"/>
       <c r="AV45" s="2"/>
@@ -5074,9 +5151,7 @@
       <c r="CM45" s="2"/>
       <c r="CQ45" s="12"/>
       <c r="CR45" s="12"/>
-      <c r="CS45" s="19"/>
-      <c r="CT45" s="19"/>
-      <c r="CU45" s="19"/>
+      <c r="CS45" s="2"/>
       <c r="CW45" s="2"/>
       <c r="CX45" s="12"/>
       <c r="CY45" s="12"/>
@@ -5087,14 +5162,20 @@
       <c r="DD45" s="2"/>
     </row>
     <row r="46">
-      <c r="C46" s="18"/>
-      <c r="D46" s="18" t="s">
-        <v>106</v>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -5122,21 +5203,20 @@
       <c r="AE46" s="11"/>
       <c r="AF46" s="12"/>
       <c r="AG46" s="12"/>
-      <c r="AH46" s="2"/>
-      <c r="AI46" s="2"/>
-      <c r="AJ46" s="28"/>
-      <c r="AK46" s="28"/>
-      <c r="AL46" s="2"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="11"/>
+      <c r="AL46" s="11"/>
       <c r="AM46" s="12"/>
       <c r="AN46" s="12"/>
-      <c r="AO46" s="2"/>
-      <c r="AS46" s="2"/>
+      <c r="AO46" s="11"/>
+      <c r="AP46" s="11"/>
+      <c r="AQ46" s="11"/>
+      <c r="AR46" s="11"/>
+      <c r="AS46" s="11"/>
       <c r="AT46" s="12"/>
       <c r="AU46" s="12"/>
-      <c r="AV46" s="2"/>
-      <c r="AW46" s="2"/>
-      <c r="AX46" s="2"/>
-      <c r="AZ46" s="2"/>
       <c r="BA46" s="12"/>
       <c r="BB46" s="12"/>
       <c r="BC46" s="2"/>
@@ -5145,13 +5225,13 @@
       <c r="BG46" s="2"/>
       <c r="BH46" s="12"/>
       <c r="BI46" s="12"/>
-      <c r="BJ46" s="2"/>
-      <c r="BK46" s="2"/>
-      <c r="BL46" s="2"/>
+      <c r="BL46" s="21"/>
+      <c r="BM46" s="21"/>
+      <c r="BN46" s="21"/>
       <c r="BO46" s="12"/>
       <c r="BP46" s="12"/>
-      <c r="BQ46" s="2"/>
-      <c r="BR46" s="2"/>
+      <c r="BQ46" s="21"/>
+      <c r="BR46" s="21"/>
       <c r="BV46" s="12"/>
       <c r="BW46" s="12"/>
       <c r="BX46" s="2"/>
@@ -5179,14 +5259,12 @@
     <row r="47">
       <c r="C47" s="14"/>
       <c r="D47" s="14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>31</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F47" s="14"/>
       <c r="G47" s="2"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -5214,11 +5292,11 @@
       <c r="AE47" s="11"/>
       <c r="AF47" s="12"/>
       <c r="AG47" s="12"/>
-      <c r="AH47" s="2"/>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="28"/>
-      <c r="AK47" s="28"/>
-      <c r="AL47" s="2"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
+      <c r="AL47" s="11"/>
       <c r="AM47" s="12"/>
       <c r="AN47" s="12"/>
       <c r="AO47" s="2"/>
@@ -5269,16 +5347,14 @@
       <c r="DD47" s="2"/>
     </row>
     <row r="48">
-      <c r="C48" s="14"/>
-      <c r="D48" s="14" t="s">
-        <v>108</v>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>31</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F48" s="14"/>
       <c r="G48" s="2"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
@@ -5308,8 +5384,8 @@
       <c r="AG48" s="12"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
-      <c r="AJ48" s="28"/>
-      <c r="AK48" s="28"/>
+      <c r="AJ48" s="32"/>
+      <c r="AK48" s="32"/>
       <c r="AL48" s="2"/>
       <c r="AM48" s="12"/>
       <c r="AN48" s="12"/>
@@ -5334,8 +5410,6 @@
       <c r="BL48" s="2"/>
       <c r="BO48" s="12"/>
       <c r="BP48" s="12"/>
-      <c r="BQ48" s="2"/>
-      <c r="BR48" s="2"/>
       <c r="BV48" s="12"/>
       <c r="BW48" s="12"/>
       <c r="BX48" s="2"/>
@@ -5361,14 +5435,16 @@
       <c r="DD48" s="2"/>
     </row>
     <row r="49">
-      <c r="C49" s="14"/>
-      <c r="D49" s="14" t="s">
-        <v>109</v>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="14"/>
+        <v>90</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -5398,8 +5474,8 @@
       <c r="AG49" s="12"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
-      <c r="AJ49" s="28"/>
-      <c r="AK49" s="28"/>
+      <c r="AJ49" s="32"/>
+      <c r="AK49" s="32"/>
       <c r="AL49" s="2"/>
       <c r="AM49" s="12"/>
       <c r="AN49" s="12"/>
@@ -5424,16 +5500,15 @@
       <c r="BL49" s="2"/>
       <c r="BO49" s="12"/>
       <c r="BP49" s="12"/>
-      <c r="BQ49" s="2"/>
-      <c r="BR49" s="2"/>
       <c r="BV49" s="12"/>
       <c r="BW49" s="12"/>
       <c r="BX49" s="2"/>
       <c r="BY49" s="2"/>
       <c r="CC49" s="12"/>
       <c r="CD49" s="12"/>
-      <c r="CE49" s="2"/>
-      <c r="CF49" s="2"/>
+      <c r="CE49" s="19"/>
+      <c r="CF49" s="19"/>
+      <c r="CG49" s="19"/>
       <c r="CJ49" s="12"/>
       <c r="CK49" s="12"/>
       <c r="CL49" s="2"/>
@@ -5450,10 +5525,108 @@
       <c r="DC49" s="2"/>
       <c r="DD49" s="2"/>
     </row>
+    <row r="50">
+      <c r="C50" s="18"/>
+      <c r="D50" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="32"/>
+      <c r="AK50" s="32"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="12"/>
+      <c r="AN50" s="12"/>
+      <c r="AO50" s="2"/>
+      <c r="AS50" s="2"/>
+      <c r="AT50" s="12"/>
+      <c r="AU50" s="12"/>
+      <c r="AV50" s="2"/>
+      <c r="AW50" s="2"/>
+      <c r="AX50" s="2"/>
+      <c r="AZ50" s="2"/>
+      <c r="BA50" s="12"/>
+      <c r="BB50" s="12"/>
+      <c r="BC50" s="2"/>
+      <c r="BD50" s="2"/>
+      <c r="BE50" s="2"/>
+      <c r="BG50" s="2"/>
+      <c r="BH50" s="12"/>
+      <c r="BI50" s="12"/>
+      <c r="BJ50" s="2"/>
+      <c r="BK50" s="2"/>
+      <c r="BL50" s="2"/>
+      <c r="BO50" s="12"/>
+      <c r="BP50" s="12"/>
+      <c r="BQ50" s="2"/>
+      <c r="BR50" s="2"/>
+      <c r="BV50" s="12"/>
+      <c r="BW50" s="12"/>
+      <c r="BX50" s="2"/>
+      <c r="BY50" s="2"/>
+      <c r="CC50" s="12"/>
+      <c r="CD50" s="12"/>
+      <c r="CE50" s="2"/>
+      <c r="CF50" s="2"/>
+      <c r="CJ50" s="12"/>
+      <c r="CK50" s="12"/>
+      <c r="CL50" s="2"/>
+      <c r="CM50" s="2"/>
+      <c r="CQ50" s="12"/>
+      <c r="CR50" s="12"/>
+      <c r="CS50" s="19"/>
+      <c r="CT50" s="19"/>
+      <c r="CU50" s="19"/>
+      <c r="CW50" s="2"/>
+      <c r="CX50" s="12"/>
+      <c r="CY50" s="12"/>
+      <c r="CZ50" s="2"/>
+      <c r="DA50" s="2"/>
+      <c r="DB50" s="2"/>
+      <c r="DC50" s="2"/>
+      <c r="DD50" s="2"/>
+    </row>
     <row r="51">
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F51" s="14"/>
       <c r="G51" s="2"/>
       <c r="H51" s="11"/>
@@ -5484,8 +5657,8 @@
       <c r="AG51" s="12"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
-      <c r="AJ51" s="28"/>
-      <c r="AK51" s="28"/>
+      <c r="AJ51" s="32"/>
+      <c r="AK51" s="32"/>
       <c r="AL51" s="2"/>
       <c r="AM51" s="12"/>
       <c r="AN51" s="12"/>
@@ -5537,162 +5710,366 @@
       <c r="DD51" s="2"/>
     </row>
     <row r="52">
+      <c r="C52" s="14"/>
+      <c r="D52" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="2"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
       <c r="V52" s="11"/>
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
       <c r="AA52" s="11"/>
       <c r="AB52" s="11"/>
       <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
       <c r="AE52" s="11"/>
-      <c r="AJ52" s="28"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="32"/>
+      <c r="AK52" s="32"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="12"/>
+      <c r="AN52" s="12"/>
+      <c r="AO52" s="2"/>
+      <c r="AS52" s="2"/>
+      <c r="AT52" s="12"/>
+      <c r="AU52" s="12"/>
+      <c r="AV52" s="2"/>
+      <c r="AW52" s="2"/>
+      <c r="AX52" s="2"/>
+      <c r="AZ52" s="2"/>
+      <c r="BA52" s="12"/>
+      <c r="BB52" s="12"/>
+      <c r="BC52" s="2"/>
+      <c r="BD52" s="2"/>
+      <c r="BE52" s="2"/>
+      <c r="BG52" s="2"/>
+      <c r="BH52" s="12"/>
+      <c r="BI52" s="12"/>
+      <c r="BJ52" s="2"/>
+      <c r="BK52" s="2"/>
+      <c r="BL52" s="2"/>
+      <c r="BO52" s="12"/>
+      <c r="BP52" s="12"/>
+      <c r="BQ52" s="2"/>
+      <c r="BR52" s="2"/>
+      <c r="BV52" s="12"/>
+      <c r="BW52" s="12"/>
+      <c r="BX52" s="2"/>
+      <c r="BY52" s="2"/>
+      <c r="CC52" s="12"/>
+      <c r="CD52" s="12"/>
+      <c r="CE52" s="2"/>
+      <c r="CF52" s="2"/>
+      <c r="CJ52" s="12"/>
+      <c r="CK52" s="12"/>
+      <c r="CL52" s="2"/>
+      <c r="CM52" s="2"/>
+      <c r="CQ52" s="12"/>
+      <c r="CR52" s="12"/>
+      <c r="CS52" s="2"/>
+      <c r="CW52" s="2"/>
+      <c r="CX52" s="12"/>
+      <c r="CY52" s="12"/>
+      <c r="CZ52" s="2"/>
+      <c r="DA52" s="2"/>
+      <c r="DB52" s="2"/>
+      <c r="DC52" s="2"/>
+      <c r="DD52" s="2"/>
     </row>
     <row r="53">
-      <c r="C53" s="13"/>
-      <c r="D53" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="22"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="2"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
       <c r="AA53" s="11"/>
       <c r="AB53" s="11"/>
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
-      <c r="AJ53" s="28"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="32"/>
+      <c r="AK53" s="32"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
+      <c r="AO53" s="2"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="12"/>
+      <c r="AU53" s="12"/>
+      <c r="AV53" s="2"/>
+      <c r="AW53" s="2"/>
+      <c r="AX53" s="2"/>
+      <c r="AZ53" s="2"/>
+      <c r="BA53" s="12"/>
+      <c r="BB53" s="12"/>
+      <c r="BC53" s="2"/>
+      <c r="BD53" s="2"/>
+      <c r="BE53" s="2"/>
+      <c r="BG53" s="2"/>
+      <c r="BH53" s="12"/>
+      <c r="BI53" s="12"/>
+      <c r="BJ53" s="2"/>
+      <c r="BK53" s="2"/>
+      <c r="BL53" s="2"/>
+      <c r="BO53" s="12"/>
+      <c r="BP53" s="12"/>
+      <c r="BQ53" s="2"/>
+      <c r="BR53" s="2"/>
+      <c r="BV53" s="12"/>
+      <c r="BW53" s="12"/>
+      <c r="BX53" s="2"/>
+      <c r="BY53" s="2"/>
+      <c r="CC53" s="12"/>
+      <c r="CD53" s="12"/>
+      <c r="CE53" s="2"/>
+      <c r="CF53" s="2"/>
+      <c r="CJ53" s="12"/>
+      <c r="CK53" s="12"/>
+      <c r="CL53" s="2"/>
+      <c r="CM53" s="2"/>
+      <c r="CQ53" s="12"/>
+      <c r="CR53" s="12"/>
+      <c r="CS53" s="2"/>
+      <c r="CW53" s="2"/>
+      <c r="CX53" s="12"/>
+      <c r="CY53" s="12"/>
+      <c r="CZ53" s="2"/>
+      <c r="DA53" s="2"/>
+      <c r="DB53" s="2"/>
+      <c r="DC53" s="2"/>
+      <c r="DD53" s="2"/>
     </row>
     <row r="54">
-      <c r="C54" s="13"/>
-      <c r="D54" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="16"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="14"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
       <c r="AA54" s="11"/>
       <c r="AB54" s="11"/>
       <c r="AC54" s="11"/>
       <c r="AD54" s="11"/>
       <c r="AE54" s="11"/>
-    </row>
-    <row r="55">
-      <c r="C55" s="13"/>
-      <c r="D55" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="19"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="11"/>
-      <c r="AC55" s="11"/>
-      <c r="AD55" s="11"/>
-      <c r="AE55" s="11"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="32"/>
+      <c r="AK54" s="32"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="2"/>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="12"/>
+      <c r="AU54" s="12"/>
+      <c r="AV54" s="2"/>
+      <c r="AW54" s="2"/>
+      <c r="AX54" s="2"/>
+      <c r="AZ54" s="2"/>
+      <c r="BA54" s="12"/>
+      <c r="BB54" s="12"/>
+      <c r="BC54" s="2"/>
+      <c r="BD54" s="2"/>
+      <c r="BE54" s="2"/>
+      <c r="BG54" s="2"/>
+      <c r="BH54" s="12"/>
+      <c r="BI54" s="12"/>
+      <c r="BJ54" s="2"/>
+      <c r="BK54" s="2"/>
+      <c r="BL54" s="2"/>
+      <c r="BO54" s="12"/>
+      <c r="BP54" s="12"/>
+      <c r="BQ54" s="2"/>
+      <c r="BR54" s="2"/>
+      <c r="BV54" s="12"/>
+      <c r="BW54" s="12"/>
+      <c r="BX54" s="2"/>
+      <c r="BY54" s="2"/>
+      <c r="CC54" s="12"/>
+      <c r="CD54" s="12"/>
+      <c r="CE54" s="2"/>
+      <c r="CF54" s="2"/>
+      <c r="CJ54" s="12"/>
+      <c r="CK54" s="12"/>
+      <c r="CL54" s="2"/>
+      <c r="CM54" s="2"/>
+      <c r="CQ54" s="12"/>
+      <c r="CR54" s="12"/>
+      <c r="CS54" s="2"/>
+      <c r="CW54" s="2"/>
+      <c r="CX54" s="12"/>
+      <c r="CY54" s="12"/>
+      <c r="CZ54" s="2"/>
+      <c r="DA54" s="2"/>
+      <c r="DB54" s="2"/>
+      <c r="DC54" s="2"/>
+      <c r="DD54" s="2"/>
     </row>
     <row r="56">
-      <c r="C56" s="13"/>
-      <c r="D56" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="20"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
       <c r="AA56" s="11"/>
       <c r="AB56" s="11"/>
       <c r="AC56" s="11"/>
       <c r="AD56" s="11"/>
       <c r="AE56" s="11"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="32"/>
+      <c r="AK56" s="32"/>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="12"/>
+      <c r="AN56" s="12"/>
+      <c r="AO56" s="2"/>
+      <c r="AS56" s="2"/>
+      <c r="AT56" s="12"/>
+      <c r="AU56" s="12"/>
+      <c r="AV56" s="2"/>
+      <c r="AW56" s="2"/>
+      <c r="AX56" s="2"/>
+      <c r="AZ56" s="2"/>
+      <c r="BA56" s="12"/>
+      <c r="BB56" s="12"/>
+      <c r="BC56" s="2"/>
+      <c r="BD56" s="2"/>
+      <c r="BE56" s="2"/>
+      <c r="BG56" s="2"/>
+      <c r="BH56" s="12"/>
+      <c r="BI56" s="12"/>
+      <c r="BJ56" s="2"/>
+      <c r="BK56" s="2"/>
+      <c r="BL56" s="2"/>
+      <c r="BO56" s="12"/>
+      <c r="BP56" s="12"/>
+      <c r="BQ56" s="2"/>
+      <c r="BR56" s="2"/>
+      <c r="BV56" s="12"/>
+      <c r="BW56" s="12"/>
+      <c r="BX56" s="2"/>
+      <c r="BY56" s="2"/>
+      <c r="CC56" s="12"/>
+      <c r="CD56" s="12"/>
+      <c r="CE56" s="2"/>
+      <c r="CF56" s="2"/>
+      <c r="CJ56" s="12"/>
+      <c r="CK56" s="12"/>
+      <c r="CL56" s="2"/>
+      <c r="CM56" s="2"/>
+      <c r="CQ56" s="12"/>
+      <c r="CR56" s="12"/>
+      <c r="CS56" s="2"/>
+      <c r="CW56" s="2"/>
+      <c r="CX56" s="12"/>
+      <c r="CY56" s="12"/>
+      <c r="CZ56" s="2"/>
+      <c r="DA56" s="2"/>
+      <c r="DB56" s="2"/>
+      <c r="DC56" s="2"/>
+      <c r="DD56" s="2"/>
     </row>
     <row r="57">
-      <c r="D57" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="21"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
@@ -5717,8 +6094,14 @@
       <c r="AC57" s="11"/>
       <c r="AD57" s="11"/>
       <c r="AE57" s="11"/>
+      <c r="AJ57" s="32"/>
     </row>
     <row r="58">
+      <c r="C58" s="13"/>
+      <c r="D58" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="22"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
@@ -5743,8 +6126,14 @@
       <c r="AC58" s="11"/>
       <c r="AD58" s="11"/>
       <c r="AE58" s="11"/>
+      <c r="AJ58" s="32"/>
     </row>
     <row r="59">
+      <c r="C59" s="13"/>
+      <c r="D59" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="16"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
@@ -5771,6 +6160,11 @@
       <c r="AE59" s="11"/>
     </row>
     <row r="60">
+      <c r="C60" s="13"/>
+      <c r="D60" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="19"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
@@ -5797,6 +6191,11 @@
       <c r="AE60" s="11"/>
     </row>
     <row r="61">
+      <c r="C61" s="13"/>
+      <c r="D61" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="20"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
@@ -5823,6 +6222,10 @@
       <c r="AE61" s="11"/>
     </row>
     <row r="62">
+      <c r="D62" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="21"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
@@ -30937,6 +31340,136 @@
       <c r="AC1027" s="11"/>
       <c r="AD1027" s="11"/>
       <c r="AE1027" s="11"/>
+    </row>
+    <row r="1028">
+      <c r="H1028" s="11"/>
+      <c r="I1028" s="11"/>
+      <c r="J1028" s="11"/>
+      <c r="K1028" s="11"/>
+      <c r="L1028" s="11"/>
+      <c r="M1028" s="11"/>
+      <c r="N1028" s="11"/>
+      <c r="O1028" s="11"/>
+      <c r="P1028" s="11"/>
+      <c r="Q1028" s="11"/>
+      <c r="R1028" s="11"/>
+      <c r="S1028" s="11"/>
+      <c r="T1028" s="11"/>
+      <c r="U1028" s="11"/>
+      <c r="V1028" s="11"/>
+      <c r="W1028" s="11"/>
+      <c r="X1028" s="11"/>
+      <c r="Y1028" s="11"/>
+      <c r="Z1028" s="11"/>
+      <c r="AA1028" s="11"/>
+      <c r="AB1028" s="11"/>
+      <c r="AC1028" s="11"/>
+      <c r="AD1028" s="11"/>
+      <c r="AE1028" s="11"/>
+    </row>
+    <row r="1029">
+      <c r="H1029" s="11"/>
+      <c r="I1029" s="11"/>
+      <c r="J1029" s="11"/>
+      <c r="K1029" s="11"/>
+      <c r="L1029" s="11"/>
+      <c r="M1029" s="11"/>
+      <c r="N1029" s="11"/>
+      <c r="O1029" s="11"/>
+      <c r="P1029" s="11"/>
+      <c r="Q1029" s="11"/>
+      <c r="R1029" s="11"/>
+      <c r="S1029" s="11"/>
+      <c r="T1029" s="11"/>
+      <c r="U1029" s="11"/>
+      <c r="V1029" s="11"/>
+      <c r="W1029" s="11"/>
+      <c r="X1029" s="11"/>
+      <c r="Y1029" s="11"/>
+      <c r="Z1029" s="11"/>
+      <c r="AA1029" s="11"/>
+      <c r="AB1029" s="11"/>
+      <c r="AC1029" s="11"/>
+      <c r="AD1029" s="11"/>
+      <c r="AE1029" s="11"/>
+    </row>
+    <row r="1030">
+      <c r="H1030" s="11"/>
+      <c r="I1030" s="11"/>
+      <c r="J1030" s="11"/>
+      <c r="K1030" s="11"/>
+      <c r="L1030" s="11"/>
+      <c r="M1030" s="11"/>
+      <c r="N1030" s="11"/>
+      <c r="O1030" s="11"/>
+      <c r="P1030" s="11"/>
+      <c r="Q1030" s="11"/>
+      <c r="R1030" s="11"/>
+      <c r="S1030" s="11"/>
+      <c r="T1030" s="11"/>
+      <c r="U1030" s="11"/>
+      <c r="V1030" s="11"/>
+      <c r="W1030" s="11"/>
+      <c r="X1030" s="11"/>
+      <c r="Y1030" s="11"/>
+      <c r="Z1030" s="11"/>
+      <c r="AA1030" s="11"/>
+      <c r="AB1030" s="11"/>
+      <c r="AC1030" s="11"/>
+      <c r="AD1030" s="11"/>
+      <c r="AE1030" s="11"/>
+    </row>
+    <row r="1031">
+      <c r="H1031" s="11"/>
+      <c r="I1031" s="11"/>
+      <c r="J1031" s="11"/>
+      <c r="K1031" s="11"/>
+      <c r="L1031" s="11"/>
+      <c r="M1031" s="11"/>
+      <c r="N1031" s="11"/>
+      <c r="O1031" s="11"/>
+      <c r="P1031" s="11"/>
+      <c r="Q1031" s="11"/>
+      <c r="R1031" s="11"/>
+      <c r="S1031" s="11"/>
+      <c r="T1031" s="11"/>
+      <c r="U1031" s="11"/>
+      <c r="V1031" s="11"/>
+      <c r="W1031" s="11"/>
+      <c r="X1031" s="11"/>
+      <c r="Y1031" s="11"/>
+      <c r="Z1031" s="11"/>
+      <c r="AA1031" s="11"/>
+      <c r="AB1031" s="11"/>
+      <c r="AC1031" s="11"/>
+      <c r="AD1031" s="11"/>
+      <c r="AE1031" s="11"/>
+    </row>
+    <row r="1032">
+      <c r="H1032" s="11"/>
+      <c r="I1032" s="11"/>
+      <c r="J1032" s="11"/>
+      <c r="K1032" s="11"/>
+      <c r="L1032" s="11"/>
+      <c r="M1032" s="11"/>
+      <c r="N1032" s="11"/>
+      <c r="O1032" s="11"/>
+      <c r="P1032" s="11"/>
+      <c r="Q1032" s="11"/>
+      <c r="R1032" s="11"/>
+      <c r="S1032" s="11"/>
+      <c r="T1032" s="11"/>
+      <c r="U1032" s="11"/>
+      <c r="V1032" s="11"/>
+      <c r="W1032" s="11"/>
+      <c r="X1032" s="11"/>
+      <c r="Y1032" s="11"/>
+      <c r="Z1032" s="11"/>
+      <c r="AA1032" s="11"/>
+      <c r="AB1032" s="11"/>
+      <c r="AC1032" s="11"/>
+      <c r="AD1032" s="11"/>
+      <c r="AE1032" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -30964,53 +31497,53 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29">
+      <c r="A1" s="33">
         <v>2.1</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>110</v>
+      <c r="B1" s="33" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="13" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="13" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
